--- a/xlsx/ADR_23.5.0_Semantic_Correspondence_Report.xlsx
+++ b/xlsx/ADR_23.5.0_Semantic_Correspondence_Report.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CORPORATE\SESAR\Units Corner\SWIM-EA\SWIM\AIRM\Standards_Compliance\ADR_Compliance\ADR-23.5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C21A572-4EA9-8340-815F-DFE147031D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="2" r:id="rId1"/>
-    <sheet name="semantic_correspondence" sheetId="1" r:id="rId2"/>
+    <sheet name="semantic correspondences" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">semantic_correspondence!$A$1:$K$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'semantic correspondences'!$A$1:$L$397</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="917">
   <si>
     <t>Notes</t>
   </si>
@@ -2430,9 +2431,6 @@
   </si>
   <si>
     <t>Data Concept</t>
-  </si>
-  <si>
-    <t>Data Concept's Basic Type</t>
   </si>
   <si>
     <t>AIRM Concept Identifier</t>
@@ -2891,14 +2889,27 @@
   <si>
     <t>http://www.aixm.aero/schema/index.html</t>
   </si>
+  <si>
+    <t>Data Concept Type</t>
+  </si>
+  <si>
+    <t>Additional Traces</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3057,26 +3068,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3087,22 +3098,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,28 +3122,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3141,11 +3149,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3241,6 +3252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3276,6 +3304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3451,243 +3496,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="103.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="27.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="103.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B2" s="13" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="B12" s="13" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
         <v>908</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19" t="s">
-        <v>909</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>912</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" ht="390" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
-        <v>913</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-    </row>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="http://www.aixm.aero/public/standard_page/download.html"/>
-    <hyperlink ref="B13" r:id="rId2" display="https://extranet.sesarju.eu/WP_08/Project_08.01.03/Project%20Plan/8.1.3.D47_AIRM%20v4.1.0.doc"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://www.aixm.aero/public/standard_page/download.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://extranet.sesarju.eu/WP_08/Project_08.01.03/Project%20Plan/8.1.3.D47_AIRM%20v4.1.0.doc" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K397"/>
+  <dimension ref="A1:L397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G366" sqref="G366"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="56.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>799</v>
       </c>
@@ -3695,34 +3715,37 @@
         <v>800</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -3733,17 +3756,18 @@
         <v>2</v>
       </c>
       <c r="F2"/>
-      <c r="G2" t="s">
-        <v>830</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>829</v>
       </c>
-      <c r="K2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>828</v>
+      </c>
+      <c r="L2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3754,17 +3778,18 @@
         <v>2</v>
       </c>
       <c r="F3"/>
-      <c r="G3" t="s">
-        <v>830</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3"/>
+      <c r="H3" t="s">
         <v>829</v>
       </c>
-      <c r="K3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>828</v>
+      </c>
+      <c r="L3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -3775,17 +3800,18 @@
         <v>2</v>
       </c>
       <c r="F4"/>
-      <c r="G4" t="s">
-        <v>830</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4"/>
+      <c r="H4" t="s">
         <v>829</v>
       </c>
-      <c r="K4" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>828</v>
+      </c>
+      <c r="L4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -3796,17 +3822,18 @@
         <v>2</v>
       </c>
       <c r="F5"/>
-      <c r="G5" t="s">
-        <v>830</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5"/>
+      <c r="H5" t="s">
         <v>829</v>
       </c>
-      <c r="K5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>828</v>
+      </c>
+      <c r="L5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -3817,17 +3844,18 @@
         <v>2</v>
       </c>
       <c r="F6"/>
-      <c r="G6" t="s">
-        <v>830</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6"/>
+      <c r="H6" t="s">
         <v>829</v>
       </c>
-      <c r="K6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>828</v>
+      </c>
+      <c r="L6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -3838,17 +3866,18 @@
         <v>2</v>
       </c>
       <c r="F7"/>
-      <c r="G7" t="s">
-        <v>830</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7"/>
+      <c r="H7" t="s">
         <v>829</v>
       </c>
-      <c r="K7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>828</v>
+      </c>
+      <c r="L7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -3859,17 +3888,18 @@
         <v>2</v>
       </c>
       <c r="F8"/>
-      <c r="G8" t="s">
-        <v>830</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8"/>
+      <c r="H8" t="s">
         <v>829</v>
       </c>
-      <c r="K8" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>828</v>
+      </c>
+      <c r="L8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -3880,17 +3910,18 @@
         <v>2</v>
       </c>
       <c r="F9"/>
-      <c r="G9" t="s">
-        <v>830</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9"/>
+      <c r="H9" t="s">
         <v>829</v>
       </c>
-      <c r="K9" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>828</v>
+      </c>
+      <c r="L9" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -3901,17 +3932,18 @@
         <v>2</v>
       </c>
       <c r="F10"/>
-      <c r="G10" t="s">
-        <v>830</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10"/>
+      <c r="H10" t="s">
         <v>829</v>
       </c>
-      <c r="K10" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>828</v>
+      </c>
+      <c r="L10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>382</v>
       </c>
@@ -3922,17 +3954,18 @@
         <v>2</v>
       </c>
       <c r="F11"/>
-      <c r="G11" t="s">
-        <v>830</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11"/>
+      <c r="H11" t="s">
         <v>829</v>
       </c>
-      <c r="K11" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>828</v>
+      </c>
+      <c r="L11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>437</v>
       </c>
@@ -3943,17 +3976,18 @@
         <v>2</v>
       </c>
       <c r="F12"/>
-      <c r="G12" t="s">
-        <v>830</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12"/>
+      <c r="H12" t="s">
         <v>829</v>
       </c>
-      <c r="K12" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>828</v>
+      </c>
+      <c r="L12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>474</v>
       </c>
@@ -3964,17 +3998,18 @@
         <v>2</v>
       </c>
       <c r="F13"/>
-      <c r="G13" t="s">
-        <v>830</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13"/>
+      <c r="H13" t="s">
         <v>829</v>
       </c>
-      <c r="K13" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>828</v>
+      </c>
+      <c r="L13" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -3985,17 +4020,18 @@
         <v>2</v>
       </c>
       <c r="F14"/>
-      <c r="G14" t="s">
-        <v>830</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14"/>
+      <c r="H14" t="s">
         <v>829</v>
       </c>
-      <c r="K14" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>828</v>
+      </c>
+      <c r="L14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>512</v>
       </c>
@@ -4006,17 +4042,18 @@
         <v>2</v>
       </c>
       <c r="F15"/>
-      <c r="G15" t="s">
-        <v>830</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="G15"/>
+      <c r="H15" t="s">
         <v>829</v>
       </c>
-      <c r="K15" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>828</v>
+      </c>
+      <c r="L15" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>565</v>
       </c>
@@ -4027,17 +4064,18 @@
         <v>2</v>
       </c>
       <c r="F16"/>
-      <c r="G16" t="s">
-        <v>830</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G16"/>
+      <c r="H16" t="s">
         <v>829</v>
       </c>
-      <c r="K16" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>828</v>
+      </c>
+      <c r="L16" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>554</v>
       </c>
@@ -4048,17 +4086,18 @@
         <v>2</v>
       </c>
       <c r="F17"/>
-      <c r="G17" t="s">
-        <v>830</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G17"/>
+      <c r="H17" t="s">
         <v>829</v>
       </c>
-      <c r="K17" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>828</v>
+      </c>
+      <c r="L17" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>580</v>
       </c>
@@ -4069,17 +4108,18 @@
         <v>2</v>
       </c>
       <c r="F18"/>
-      <c r="G18" t="s">
-        <v>830</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G18"/>
+      <c r="H18" t="s">
         <v>829</v>
       </c>
-      <c r="K18" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>828</v>
+      </c>
+      <c r="L18" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>607</v>
       </c>
@@ -4090,17 +4130,18 @@
         <v>2</v>
       </c>
       <c r="F19"/>
-      <c r="G19" t="s">
-        <v>830</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G19"/>
+      <c r="H19" t="s">
         <v>829</v>
       </c>
-      <c r="K19" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>828</v>
+      </c>
+      <c r="L19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>785</v>
       </c>
@@ -4111,14 +4152,15 @@
         <v>2</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="9" t="s">
+      <c r="G20"/>
+      <c r="H20" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="L20" t="s">
         <v>832</v>
       </c>
-      <c r="K20" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>787</v>
       </c>
@@ -4129,17 +4171,18 @@
         <v>2</v>
       </c>
       <c r="F21"/>
-      <c r="G21" t="s">
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>829</v>
+      </c>
+      <c r="J21" t="s">
+        <v>828</v>
+      </c>
+      <c r="L21" t="s">
         <v>830</v>
       </c>
-      <c r="I21" t="s">
-        <v>829</v>
-      </c>
-      <c r="K21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>778</v>
       </c>
@@ -4150,14 +4193,15 @@
         <v>2</v>
       </c>
       <c r="F22"/>
-      <c r="G22" t="s">
-        <v>830</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G22"/>
+      <c r="H22" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>778</v>
       </c>
@@ -4174,10 +4218,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>778</v>
       </c>
@@ -4194,10 +4238,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>783</v>
       </c>
@@ -4208,17 +4252,18 @@
         <v>2</v>
       </c>
       <c r="F25"/>
-      <c r="G25" t="s">
-        <v>830</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G25"/>
+      <c r="H25" t="s">
         <v>829</v>
       </c>
-      <c r="K25" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>828</v>
+      </c>
+      <c r="L25" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>609</v>
       </c>
@@ -4226,17 +4271,18 @@
         <v>610</v>
       </c>
       <c r="F26"/>
-      <c r="G26" t="s">
-        <v>830</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="G26"/>
+      <c r="H26" t="s">
         <v>829</v>
       </c>
-      <c r="K26" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>828</v>
+      </c>
+      <c r="L26" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>611</v>
       </c>
@@ -4246,14 +4292,14 @@
       <c r="D27" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>834</v>
+      </c>
+      <c r="L27" t="s">
         <v>835</v>
       </c>
-      <c r="K27" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>611</v>
       </c>
@@ -4261,10 +4307,11 @@
         <v>612</v>
       </c>
       <c r="F28" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -4275,8 +4322,9 @@
         <v>2</v>
       </c>
       <c r="F29"/>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4284,7 +4332,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>9</v>
@@ -4293,13 +4341,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="K30" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="L30" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4307,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>11</v>
@@ -4316,13 +4364,13 @@
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="L31" t="s">
         <v>859</v>
       </c>
-      <c r="K31" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4333,14 +4381,15 @@
         <v>2</v>
       </c>
       <c r="F32"/>
-      <c r="G32" t="s">
-        <v>830</v>
-      </c>
-      <c r="K32" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>829</v>
+      </c>
+      <c r="L32" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4351,17 +4400,18 @@
         <v>2</v>
       </c>
       <c r="F33"/>
-      <c r="G33" t="s">
-        <v>830</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G33"/>
+      <c r="H33" t="s">
         <v>829</v>
       </c>
-      <c r="K33" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>828</v>
+      </c>
+      <c r="L33" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>615</v>
       </c>
@@ -4369,14 +4419,15 @@
         <v>616</v>
       </c>
       <c r="F34"/>
-      <c r="G34" t="s">
-        <v>830</v>
-      </c>
-      <c r="K34" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>829</v>
+      </c>
+      <c r="L34" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>617</v>
       </c>
@@ -4386,14 +4437,14 @@
       <c r="D35" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>834</v>
+      </c>
+      <c r="L35" t="s">
         <v>835</v>
       </c>
-      <c r="K35" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>617</v>
       </c>
@@ -4401,10 +4452,11 @@
         <v>618</v>
       </c>
       <c r="F36" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4415,17 +4467,18 @@
         <v>2</v>
       </c>
       <c r="F37"/>
-      <c r="G37" t="s">
-        <v>830</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="G37"/>
+      <c r="H37" t="s">
         <v>829</v>
       </c>
-      <c r="K37" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>828</v>
+      </c>
+      <c r="L37" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4433,7 +4486,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -4441,11 +4494,11 @@
       <c r="E38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -4453,7 +4506,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>21</v>
@@ -4461,14 +4514,14 @@
       <c r="E39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>832</v>
-      </c>
-      <c r="K39" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>831</v>
+      </c>
+      <c r="L39" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -4479,17 +4532,18 @@
         <v>2</v>
       </c>
       <c r="F40"/>
-      <c r="G40" t="s">
-        <v>830</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="G40"/>
+      <c r="H40" t="s">
         <v>829</v>
       </c>
-      <c r="K40" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>828</v>
+      </c>
+      <c r="L40" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -4500,17 +4554,18 @@
         <v>2</v>
       </c>
       <c r="F41"/>
-      <c r="G41" t="s">
-        <v>830</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="G41"/>
+      <c r="H41" t="s">
         <v>829</v>
       </c>
-      <c r="K41" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>828</v>
+      </c>
+      <c r="L41" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4521,11 +4576,12 @@
         <v>2</v>
       </c>
       <c r="F42"/>
-      <c r="G42" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -4536,11 +4592,12 @@
         <v>2</v>
       </c>
       <c r="F43"/>
-      <c r="G43" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -4557,10 +4614,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4568,7 +4625,7 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>62</v>
@@ -4576,11 +4633,11 @@
       <c r="E45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G45" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4591,17 +4648,18 @@
         <v>2</v>
       </c>
       <c r="F46"/>
-      <c r="G46" t="s">
-        <v>830</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="G46"/>
+      <c r="H46" t="s">
         <v>829</v>
       </c>
-      <c r="K46" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>828</v>
+      </c>
+      <c r="L46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -4612,17 +4670,18 @@
         <v>2</v>
       </c>
       <c r="F47"/>
-      <c r="G47" t="s">
-        <v>830</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47"/>
+      <c r="H47" t="s">
         <v>829</v>
       </c>
-      <c r="K47" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>828</v>
+      </c>
+      <c r="L47" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -4635,17 +4694,17 @@
       <c r="E48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G48" t="s">
-        <v>830</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>829</v>
       </c>
-      <c r="K48" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>828</v>
+      </c>
+      <c r="L48" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4656,8 +4715,9 @@
         <v>2</v>
       </c>
       <c r="F49"/>
-    </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -4674,10 +4734,10 @@
         <v>2</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -4685,7 +4745,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>51</v>
@@ -4694,10 +4754,10 @@
         <v>2</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -4713,11 +4773,11 @@
       <c r="E52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G52" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -4734,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -4748,17 +4808,18 @@
         <v>2</v>
       </c>
       <c r="F54"/>
-      <c r="G54" t="s">
-        <v>830</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G54"/>
+      <c r="H54" t="s">
         <v>829</v>
       </c>
-      <c r="K54" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>828</v>
+      </c>
+      <c r="L54" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -4769,8 +4830,9 @@
         <v>2</v>
       </c>
       <c r="F55"/>
-    </row>
-    <row r="56" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4781,8 +4843,9 @@
         <v>2</v>
       </c>
       <c r="F56"/>
-    </row>
-    <row r="57" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -4793,8 +4856,9 @@
         <v>2</v>
       </c>
       <c r="F57"/>
-    </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -4807,17 +4871,17 @@
       <c r="E58" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G58" t="s">
-        <v>830</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>829</v>
       </c>
-      <c r="K58" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>828</v>
+      </c>
+      <c r="L58" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -4828,8 +4892,9 @@
         <v>2</v>
       </c>
       <c r="F59"/>
-    </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -4845,17 +4910,17 @@
       <c r="E60" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G60" t="s">
-        <v>830</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>829</v>
       </c>
-      <c r="K60" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>828</v>
+      </c>
+      <c r="L60" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -4866,8 +4931,9 @@
         <v>2</v>
       </c>
       <c r="F61"/>
-    </row>
-    <row r="62" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -4878,17 +4944,18 @@
         <v>2</v>
       </c>
       <c r="F62"/>
-      <c r="G62" t="s">
-        <v>830</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G62"/>
+      <c r="H62" t="s">
         <v>829</v>
       </c>
-      <c r="K62" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>828</v>
+      </c>
+      <c r="L62" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -4904,11 +4971,11 @@
       <c r="E63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G63" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -4925,10 +4992,10 @@
         <v>2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -4936,7 +5003,7 @@
         <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>118</v>
@@ -4944,11 +5011,11 @@
       <c r="E65" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G65" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -4965,10 +5032,10 @@
         <v>2</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>108</v>
       </c>
@@ -4979,17 +5046,18 @@
         <v>2</v>
       </c>
       <c r="F67"/>
-      <c r="G67" t="s">
-        <v>830</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="G67"/>
+      <c r="H67" t="s">
         <v>829</v>
       </c>
-      <c r="K67" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>828</v>
+      </c>
+      <c r="L67" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -5000,17 +5068,18 @@
         <v>2</v>
       </c>
       <c r="F68"/>
-      <c r="G68" t="s">
-        <v>830</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="G68"/>
+      <c r="H68" t="s">
         <v>829</v>
       </c>
-      <c r="K68" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>828</v>
+      </c>
+      <c r="L68" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -5021,8 +5090,9 @@
         <v>2</v>
       </c>
       <c r="F69"/>
-    </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -5039,10 +5109,10 @@
         <v>2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -5059,10 +5129,10 @@
         <v>2</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -5079,10 +5149,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -5093,17 +5163,18 @@
         <v>2</v>
       </c>
       <c r="F73"/>
-      <c r="G73" t="s">
-        <v>830</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="G73"/>
+      <c r="H73" t="s">
         <v>829</v>
       </c>
-      <c r="K73" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>828</v>
+      </c>
+      <c r="L73" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -5114,8 +5185,9 @@
         <v>2</v>
       </c>
       <c r="F74"/>
-    </row>
-    <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -5128,17 +5200,17 @@
       <c r="E75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G75" t="s">
-        <v>830</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s">
         <v>829</v>
       </c>
-      <c r="K75" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>828</v>
+      </c>
+      <c r="L75" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -5149,8 +5221,9 @@
         <v>2</v>
       </c>
       <c r="F76"/>
-    </row>
-    <row r="77" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -5161,17 +5234,18 @@
         <v>2</v>
       </c>
       <c r="F77"/>
-      <c r="G77" t="s">
-        <v>830</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="G77"/>
+      <c r="H77" t="s">
         <v>829</v>
       </c>
-      <c r="K77" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>828</v>
+      </c>
+      <c r="L77" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -5179,7 +5253,7 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>100</v>
@@ -5187,11 +5261,11 @@
       <c r="E78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -5199,7 +5273,7 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>75</v>
@@ -5208,10 +5282,10 @@
         <v>2</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -5219,7 +5293,7 @@
         <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>98</v>
@@ -5227,11 +5301,11 @@
       <c r="E80" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G80" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -5239,7 +5313,7 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>77</v>
@@ -5248,10 +5322,10 @@
         <v>2</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -5259,7 +5333,7 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>79</v>
@@ -5268,10 +5342,10 @@
         <v>2</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -5279,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>81</v>
@@ -5288,10 +5362,10 @@
         <v>2</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>72</v>
       </c>
@@ -5307,11 +5381,11 @@
       <c r="E84" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G84" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>72</v>
       </c>
@@ -5327,11 +5401,11 @@
       <c r="E85" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G85" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -5347,11 +5421,11 @@
       <c r="E86" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G86" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -5368,10 +5442,10 @@
         <v>2</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -5388,10 +5462,10 @@
         <v>2</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -5407,11 +5481,11 @@
       <c r="E89" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G89" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -5419,7 +5493,7 @@
         <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>83</v>
@@ -5427,11 +5501,11 @@
       <c r="E90" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G90" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>72</v>
       </c>
@@ -5442,17 +5516,18 @@
         <v>2</v>
       </c>
       <c r="F91"/>
-      <c r="G91" t="s">
-        <v>830</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="G91"/>
+      <c r="H91" t="s">
         <v>829</v>
       </c>
-      <c r="K91" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>828</v>
+      </c>
+      <c r="L91" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -5463,17 +5538,18 @@
         <v>2</v>
       </c>
       <c r="F92"/>
-      <c r="G92" t="s">
-        <v>830</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G92"/>
+      <c r="H92" t="s">
         <v>829</v>
       </c>
-      <c r="K92" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>828</v>
+      </c>
+      <c r="L92" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>795</v>
       </c>
@@ -5484,8 +5560,9 @@
         <v>2</v>
       </c>
       <c r="F93"/>
-    </row>
-    <row r="94" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>789</v>
       </c>
@@ -5496,8 +5573,9 @@
         <v>2</v>
       </c>
       <c r="F94"/>
-    </row>
-    <row r="95" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>793</v>
       </c>
@@ -5508,8 +5586,9 @@
         <v>2</v>
       </c>
       <c r="F95"/>
-    </row>
-    <row r="96" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -5520,8 +5599,9 @@
         <v>2</v>
       </c>
       <c r="F96"/>
-    </row>
-    <row r="97" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>150</v>
       </c>
@@ -5532,8 +5612,9 @@
         <v>2</v>
       </c>
       <c r="F97"/>
-    </row>
-    <row r="98" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -5544,8 +5625,9 @@
         <v>2</v>
       </c>
       <c r="F98"/>
-    </row>
-    <row r="99" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -5556,8 +5638,9 @@
         <v>2</v>
       </c>
       <c r="F99"/>
-    </row>
-    <row r="100" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>143</v>
       </c>
@@ -5568,8 +5651,9 @@
         <v>2</v>
       </c>
       <c r="F100"/>
-    </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -5582,17 +5666,17 @@
       <c r="E101" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G101" t="s">
-        <v>830</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="H101" t="s">
         <v>829</v>
       </c>
-      <c r="K101" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>828</v>
+      </c>
+      <c r="L101" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -5603,8 +5687,9 @@
         <v>2</v>
       </c>
       <c r="F102"/>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -5620,17 +5705,17 @@
       <c r="E103" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G103" t="s">
-        <v>830</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="H103" t="s">
         <v>829</v>
       </c>
-      <c r="K103" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>828</v>
+      </c>
+      <c r="L103" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -5641,8 +5726,9 @@
         <v>2</v>
       </c>
       <c r="F104"/>
-    </row>
-    <row r="105" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>797</v>
       </c>
@@ -5653,8 +5739,9 @@
         <v>2</v>
       </c>
       <c r="F105"/>
-    </row>
-    <row r="106" spans="1:11" ht="270" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:12" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>620</v>
       </c>
@@ -5662,17 +5749,18 @@
         <v>621</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F106"/>
-      <c r="G106" t="s">
-        <v>830</v>
-      </c>
-      <c r="K106" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G106"/>
+      <c r="H106" t="s">
+        <v>829</v>
+      </c>
+      <c r="L106" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>622</v>
       </c>
@@ -5680,16 +5768,17 @@
         <v>625</v>
       </c>
       <c r="C107" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F107" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G107" s="29"/>
+    </row>
+    <row r="108" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>622</v>
       </c>
@@ -5700,10 +5789,11 @@
         <v>623</v>
       </c>
       <c r="F108" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="1:12" ht="192" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>627</v>
       </c>
@@ -5711,7 +5801,7 @@
         <v>633</v>
       </c>
       <c r="C109" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>635</v>
@@ -5720,10 +5810,10 @@
         <v>634</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>627</v>
       </c>
@@ -5731,7 +5821,7 @@
         <v>639</v>
       </c>
       <c r="C110" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>641</v>
@@ -5740,10 +5830,10 @@
         <v>640</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>627</v>
       </c>
@@ -5751,7 +5841,7 @@
         <v>636</v>
       </c>
       <c r="C111" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>638</v>
@@ -5760,10 +5850,10 @@
         <v>637</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>627</v>
       </c>
@@ -5771,7 +5861,7 @@
         <v>630</v>
       </c>
       <c r="C112" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>632</v>
@@ -5780,10 +5870,10 @@
         <v>631</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>627</v>
       </c>
@@ -5794,14 +5884,15 @@
         <v>628</v>
       </c>
       <c r="F113"/>
-      <c r="G113" t="s">
-        <v>830</v>
-      </c>
-      <c r="K113" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G113"/>
+      <c r="H113" t="s">
+        <v>829</v>
+      </c>
+      <c r="L113" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>642</v>
       </c>
@@ -5809,16 +5900,17 @@
         <v>625</v>
       </c>
       <c r="C114" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F114" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G114" s="29"/>
+    </row>
+    <row r="115" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>642</v>
       </c>
@@ -5826,10 +5918,11 @@
         <v>643</v>
       </c>
       <c r="F115" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>645</v>
       </c>
@@ -5837,7 +5930,7 @@
         <v>648</v>
       </c>
       <c r="C116" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>650</v>
@@ -5846,10 +5939,10 @@
         <v>649</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>645</v>
       </c>
@@ -5857,7 +5950,7 @@
         <v>651</v>
       </c>
       <c r="C117" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>653</v>
@@ -5866,10 +5959,10 @@
         <v>652</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>645</v>
       </c>
@@ -5877,7 +5970,7 @@
         <v>654</v>
       </c>
       <c r="C118" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>656</v>
@@ -5886,10 +5979,10 @@
         <v>655</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>645</v>
       </c>
@@ -5900,14 +5993,15 @@
         <v>646</v>
       </c>
       <c r="F119"/>
-      <c r="G119" t="s">
-        <v>830</v>
-      </c>
-      <c r="K119" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G119"/>
+      <c r="H119" t="s">
+        <v>829</v>
+      </c>
+      <c r="L119" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>657</v>
       </c>
@@ -5915,16 +6009,17 @@
         <v>625</v>
       </c>
       <c r="C120" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="F120" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G120" s="29"/>
+    </row>
+    <row r="121" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>657</v>
       </c>
@@ -5932,10 +6027,11 @@
         <v>658</v>
       </c>
       <c r="F121" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>660</v>
       </c>
@@ -5943,7 +6039,7 @@
         <v>662</v>
       </c>
       <c r="C122" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>664</v>
@@ -5951,11 +6047,11 @@
       <c r="E122" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="G122" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>660</v>
       </c>
@@ -5963,7 +6059,7 @@
         <v>665</v>
       </c>
       <c r="C123" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>667</v>
@@ -5971,11 +6067,11 @@
       <c r="E123" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G123" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>660</v>
       </c>
@@ -5983,14 +6079,15 @@
         <v>661</v>
       </c>
       <c r="F124"/>
-      <c r="G124" t="s">
-        <v>830</v>
-      </c>
-      <c r="K124" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G124"/>
+      <c r="H124" t="s">
+        <v>829</v>
+      </c>
+      <c r="L124" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>668</v>
       </c>
@@ -5998,16 +6095,17 @@
         <v>625</v>
       </c>
       <c r="C125" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F125" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G125" s="29"/>
+    </row>
+    <row r="126" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>668</v>
       </c>
@@ -6015,8 +6113,9 @@
         <v>669</v>
       </c>
       <c r="F126"/>
-    </row>
-    <row r="127" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>671</v>
       </c>
@@ -6024,7 +6123,7 @@
         <v>673</v>
       </c>
       <c r="C127" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>675</v>
@@ -6032,11 +6131,11 @@
       <c r="E127" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="G127" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="208" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>671</v>
       </c>
@@ -6044,7 +6143,7 @@
         <v>676</v>
       </c>
       <c r="C128" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>678</v>
@@ -6052,11 +6151,11 @@
       <c r="E128" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="G128" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="176" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>671</v>
       </c>
@@ -6064,7 +6163,7 @@
         <v>682</v>
       </c>
       <c r="C129" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>684</v>
@@ -6072,11 +6171,11 @@
       <c r="E129" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="G129" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>671</v>
       </c>
@@ -6084,7 +6183,7 @@
         <v>679</v>
       </c>
       <c r="C130" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>681</v>
@@ -6092,11 +6191,11 @@
       <c r="E130" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="G130" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>671</v>
       </c>
@@ -6104,7 +6203,7 @@
         <v>685</v>
       </c>
       <c r="C131" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>687</v>
@@ -6112,11 +6211,11 @@
       <c r="E131" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G131" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>671</v>
       </c>
@@ -6124,7 +6223,7 @@
         <v>688</v>
       </c>
       <c r="C132" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>690</v>
@@ -6132,11 +6231,11 @@
       <c r="E132" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="G132" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>671</v>
       </c>
@@ -6144,7 +6243,7 @@
         <v>691</v>
       </c>
       <c r="C133" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>693</v>
@@ -6152,11 +6251,11 @@
       <c r="E133" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="G133" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>671</v>
       </c>
@@ -6164,7 +6263,7 @@
         <v>694</v>
       </c>
       <c r="C134" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>696</v>
@@ -6172,11 +6271,11 @@
       <c r="E134" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="G134" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>671</v>
       </c>
@@ -6184,14 +6283,15 @@
         <v>672</v>
       </c>
       <c r="F135"/>
-      <c r="G135" t="s">
-        <v>830</v>
-      </c>
-      <c r="K135" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G135"/>
+      <c r="H135" t="s">
+        <v>829</v>
+      </c>
+      <c r="L135" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>697</v>
       </c>
@@ -6199,16 +6299,17 @@
         <v>625</v>
       </c>
       <c r="C136" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="F136" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G136" s="29"/>
+    </row>
+    <row r="137" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>697</v>
       </c>
@@ -6216,8 +6317,9 @@
         <v>698</v>
       </c>
       <c r="F137"/>
-    </row>
-    <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>700</v>
       </c>
@@ -6225,16 +6327,16 @@
         <v>704</v>
       </c>
       <c r="C138" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>705</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>700</v>
       </c>
@@ -6242,16 +6344,16 @@
         <v>706</v>
       </c>
       <c r="C139" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>707</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>700</v>
       </c>
@@ -6259,16 +6361,16 @@
         <v>702</v>
       </c>
       <c r="C140" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>703</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>700</v>
       </c>
@@ -6276,16 +6378,16 @@
         <v>708</v>
       </c>
       <c r="C141" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>709</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>700</v>
       </c>
@@ -6293,14 +6395,15 @@
         <v>701</v>
       </c>
       <c r="F142"/>
-      <c r="G142" t="s">
-        <v>830</v>
-      </c>
-      <c r="K142" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G142"/>
+      <c r="H142" t="s">
+        <v>829</v>
+      </c>
+      <c r="L142" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>710</v>
       </c>
@@ -6308,16 +6411,17 @@
         <v>625</v>
       </c>
       <c r="C143" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="F143" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G143" s="29"/>
+    </row>
+    <row r="144" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>710</v>
       </c>
@@ -6325,10 +6429,11 @@
         <v>711</v>
       </c>
       <c r="F144" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>713</v>
       </c>
@@ -6336,16 +6441,16 @@
         <v>715</v>
       </c>
       <c r="C145" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="G145" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>713</v>
       </c>
@@ -6353,16 +6458,16 @@
         <v>717</v>
       </c>
       <c r="C146" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="G146" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>713</v>
       </c>
@@ -6370,16 +6475,16 @@
         <v>719</v>
       </c>
       <c r="C147" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G147" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>713</v>
       </c>
@@ -6387,16 +6492,16 @@
         <v>721</v>
       </c>
       <c r="C148" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="G148" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>713</v>
       </c>
@@ -6404,16 +6509,16 @@
         <v>729</v>
       </c>
       <c r="C149" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="G149" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>713</v>
       </c>
@@ -6421,16 +6526,16 @@
         <v>731</v>
       </c>
       <c r="C150" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G150" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>713</v>
       </c>
@@ -6438,16 +6543,16 @@
         <v>723</v>
       </c>
       <c r="C151" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="G151" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>713</v>
       </c>
@@ -6455,16 +6560,16 @@
         <v>725</v>
       </c>
       <c r="C152" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="G152" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>713</v>
       </c>
@@ -6472,16 +6577,16 @@
         <v>727</v>
       </c>
       <c r="C153" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="G153" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>713</v>
       </c>
@@ -6489,16 +6594,16 @@
         <v>733</v>
       </c>
       <c r="C154" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="G154" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>713</v>
       </c>
@@ -6506,16 +6611,16 @@
         <v>735</v>
       </c>
       <c r="C155" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="G155" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>713</v>
       </c>
@@ -6523,16 +6628,16 @@
         <v>737</v>
       </c>
       <c r="C156" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G156" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>713</v>
       </c>
@@ -6540,16 +6645,16 @@
         <v>739</v>
       </c>
       <c r="C157" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="G157" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>713</v>
       </c>
@@ -6557,16 +6662,16 @@
         <v>741</v>
       </c>
       <c r="C158" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="G158" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>713</v>
       </c>
@@ -6574,14 +6679,15 @@
         <v>714</v>
       </c>
       <c r="F159"/>
-      <c r="G159" t="s">
-        <v>830</v>
-      </c>
-      <c r="K159" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G159"/>
+      <c r="H159" t="s">
+        <v>829</v>
+      </c>
+      <c r="L159" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>743</v>
       </c>
@@ -6589,16 +6695,17 @@
         <v>625</v>
       </c>
       <c r="C160" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="F160" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G160" s="29"/>
+    </row>
+    <row r="161" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>743</v>
       </c>
@@ -6606,8 +6713,9 @@
         <v>744</v>
       </c>
       <c r="F161"/>
-    </row>
-    <row r="162" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="G161"/>
+    </row>
+    <row r="162" spans="1:12" ht="144" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>746</v>
       </c>
@@ -6615,7 +6723,7 @@
         <v>749</v>
       </c>
       <c r="C162" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>751</v>
@@ -6623,11 +6731,11 @@
       <c r="E162" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="G162" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="288" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>746</v>
       </c>
@@ -6635,7 +6743,7 @@
         <v>755</v>
       </c>
       <c r="C163" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>757</v>
@@ -6643,11 +6751,11 @@
       <c r="E163" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="G163" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>746</v>
       </c>
@@ -6655,7 +6763,7 @@
         <v>752</v>
       </c>
       <c r="C164" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>754</v>
@@ -6663,11 +6771,11 @@
       <c r="E164" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="G164" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>746</v>
       </c>
@@ -6675,7 +6783,7 @@
         <v>758</v>
       </c>
       <c r="C165" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>760</v>
@@ -6683,11 +6791,11 @@
       <c r="E165" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="G165" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>746</v>
       </c>
@@ -6695,7 +6803,7 @@
         <v>761</v>
       </c>
       <c r="C166" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>763</v>
@@ -6703,11 +6811,11 @@
       <c r="E166" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="G166" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>746</v>
       </c>
@@ -6718,14 +6826,15 @@
         <v>747</v>
       </c>
       <c r="F167"/>
-      <c r="G167" t="s">
-        <v>830</v>
-      </c>
-      <c r="K167" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G167"/>
+      <c r="H167" t="s">
+        <v>829</v>
+      </c>
+      <c r="L167" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>764</v>
       </c>
@@ -6733,16 +6842,17 @@
         <v>625</v>
       </c>
       <c r="C168" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="F168" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G168" s="29"/>
+    </row>
+    <row r="169" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>764</v>
       </c>
@@ -6750,8 +6860,9 @@
         <v>765</v>
       </c>
       <c r="F169"/>
-    </row>
-    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G169"/>
+    </row>
+    <row r="170" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>767</v>
       </c>
@@ -6759,7 +6870,7 @@
         <v>769</v>
       </c>
       <c r="C170" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>771</v>
@@ -6767,11 +6878,11 @@
       <c r="E170" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G170" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>767</v>
       </c>
@@ -6779,7 +6890,7 @@
         <v>772</v>
       </c>
       <c r="C171" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>774</v>
@@ -6787,11 +6898,11 @@
       <c r="E171" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G171" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>767</v>
       </c>
@@ -6799,14 +6910,15 @@
         <v>768</v>
       </c>
       <c r="F172"/>
-      <c r="G172" t="s">
-        <v>830</v>
-      </c>
-      <c r="K172" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G172"/>
+      <c r="H172" t="s">
+        <v>829</v>
+      </c>
+      <c r="L172" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>775</v>
       </c>
@@ -6814,16 +6926,17 @@
         <v>625</v>
       </c>
       <c r="C173" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="F173" s="30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="G173" s="29"/>
+    </row>
+    <row r="174" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>775</v>
       </c>
@@ -6831,8 +6944,9 @@
         <v>776</v>
       </c>
       <c r="F174"/>
-    </row>
-    <row r="175" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G174"/>
+    </row>
+    <row r="175" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>154</v>
       </c>
@@ -6843,17 +6957,18 @@
         <v>2</v>
       </c>
       <c r="F175"/>
-      <c r="G175" t="s">
-        <v>830</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="G175"/>
+      <c r="H175" t="s">
         <v>829</v>
       </c>
-      <c r="K175" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>828</v>
+      </c>
+      <c r="L175" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>158</v>
       </c>
@@ -6870,10 +6985,10 @@
         <v>2</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>158</v>
       </c>
@@ -6884,17 +6999,18 @@
         <v>2</v>
       </c>
       <c r="F177"/>
-      <c r="G177" t="s">
-        <v>830</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="G177"/>
+      <c r="H177" t="s">
         <v>829</v>
       </c>
-      <c r="K177" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>828</v>
+      </c>
+      <c r="L177" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>156</v>
       </c>
@@ -6905,8 +7021,9 @@
         <v>2</v>
       </c>
       <c r="F178"/>
-    </row>
-    <row r="179" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G178"/>
+    </row>
+    <row r="179" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>163</v>
       </c>
@@ -6917,17 +7034,18 @@
         <v>2</v>
       </c>
       <c r="F179"/>
-      <c r="G179" t="s">
-        <v>830</v>
-      </c>
-      <c r="I179" t="s">
+      <c r="G179"/>
+      <c r="H179" t="s">
         <v>829</v>
       </c>
-      <c r="K179" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>828</v>
+      </c>
+      <c r="L179" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>167</v>
       </c>
@@ -6935,7 +7053,7 @@
         <v>169</v>
       </c>
       <c r="C180" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>170</v>
@@ -6944,10 +7062,10 @@
         <v>2</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>167</v>
       </c>
@@ -6958,17 +7076,18 @@
         <v>2</v>
       </c>
       <c r="F181"/>
-      <c r="G181" t="s">
-        <v>830</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="G181"/>
+      <c r="H181" t="s">
         <v>829</v>
       </c>
-      <c r="K181" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>828</v>
+      </c>
+      <c r="L181" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -6979,8 +7098,9 @@
         <v>2</v>
       </c>
       <c r="F182"/>
-    </row>
-    <row r="183" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G182"/>
+    </row>
+    <row r="183" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -6991,17 +7111,18 @@
         <v>2</v>
       </c>
       <c r="F183"/>
-      <c r="G183" t="s">
-        <v>830</v>
-      </c>
-      <c r="I183" t="s">
+      <c r="G183"/>
+      <c r="H183" t="s">
         <v>829</v>
       </c>
-      <c r="K183" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>828</v>
+      </c>
+      <c r="L183" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -7017,11 +7138,11 @@
       <c r="E184" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G184" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>175</v>
       </c>
@@ -7038,10 +7159,10 @@
         <v>2</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>175</v>
       </c>
@@ -7058,10 +7179,10 @@
         <v>2</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -7072,17 +7193,18 @@
         <v>2</v>
       </c>
       <c r="F187"/>
-      <c r="G187" t="s">
-        <v>830</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="G187"/>
+      <c r="H187" t="s">
         <v>829</v>
       </c>
-      <c r="K187" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>828</v>
+      </c>
+      <c r="L187" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -7093,8 +7215,9 @@
         <v>2</v>
       </c>
       <c r="F188"/>
-    </row>
-    <row r="189" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G188"/>
+    </row>
+    <row r="189" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -7105,17 +7228,18 @@
         <v>2</v>
       </c>
       <c r="F189"/>
-      <c r="G189" t="s">
-        <v>830</v>
-      </c>
-      <c r="I189" t="s">
+      <c r="G189"/>
+      <c r="H189" t="s">
         <v>829</v>
       </c>
-      <c r="K189" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>828</v>
+      </c>
+      <c r="L189" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -7123,7 +7247,7 @@
         <v>201</v>
       </c>
       <c r="C190" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>202</v>
@@ -7131,11 +7255,11 @@
       <c r="E190" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G190" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -7143,7 +7267,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>193</v>
@@ -7151,11 +7275,11 @@
       <c r="E191" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G191" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -7163,7 +7287,7 @@
         <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>198</v>
@@ -7171,11 +7295,11 @@
       <c r="E192" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G192" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -7183,7 +7307,7 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>196</v>
@@ -7191,11 +7315,11 @@
       <c r="E193" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G193" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -7203,7 +7327,7 @@
         <v>190</v>
       </c>
       <c r="C194" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>191</v>
@@ -7211,11 +7335,11 @@
       <c r="E194" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G194" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>188</v>
       </c>
@@ -7223,7 +7347,7 @@
         <v>82</v>
       </c>
       <c r="C195" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>194</v>
@@ -7231,11 +7355,11 @@
       <c r="E195" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G195" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -7243,7 +7367,7 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>200</v>
@@ -7251,11 +7375,11 @@
       <c r="E196" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G196" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>188</v>
       </c>
@@ -7266,17 +7390,18 @@
         <v>2</v>
       </c>
       <c r="F197"/>
-      <c r="G197" t="s">
-        <v>830</v>
-      </c>
-      <c r="I197" t="s">
+      <c r="G197"/>
+      <c r="H197" t="s">
         <v>829</v>
       </c>
-      <c r="K197" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>828</v>
+      </c>
+      <c r="L197" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>186</v>
       </c>
@@ -7287,8 +7412,9 @@
         <v>2</v>
       </c>
       <c r="F198"/>
-    </row>
-    <row r="199" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G198"/>
+    </row>
+    <row r="199" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -7299,8 +7425,9 @@
         <v>2</v>
       </c>
       <c r="F199"/>
-    </row>
-    <row r="200" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G199"/>
+    </row>
+    <row r="200" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>232</v>
       </c>
@@ -7311,8 +7438,9 @@
         <v>2</v>
       </c>
       <c r="F200"/>
-    </row>
-    <row r="201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G200"/>
+    </row>
+    <row r="201" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>237</v>
       </c>
@@ -7329,10 +7457,10 @@
         <v>2</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>237</v>
       </c>
@@ -7340,7 +7468,7 @@
         <v>239</v>
       </c>
       <c r="C202" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>240</v>
@@ -7348,11 +7476,11 @@
       <c r="E202" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G202" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>237</v>
       </c>
@@ -7369,10 +7497,10 @@
         <v>2</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>237</v>
       </c>
@@ -7389,10 +7517,10 @@
         <v>2</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>237</v>
       </c>
@@ -7409,10 +7537,10 @@
         <v>2</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>237</v>
       </c>
@@ -7429,13 +7557,13 @@
         <v>2</v>
       </c>
       <c r="F206" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="L206" t="s">
         <v>879</v>
       </c>
-      <c r="K206" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>237</v>
       </c>
@@ -7452,13 +7580,13 @@
         <v>2</v>
       </c>
       <c r="F207" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="L207" t="s">
         <v>879</v>
       </c>
-      <c r="K207" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -7469,17 +7597,18 @@
         <v>2</v>
       </c>
       <c r="F208"/>
-      <c r="G208" t="s">
-        <v>830</v>
-      </c>
-      <c r="I208" t="s">
+      <c r="G208"/>
+      <c r="H208" t="s">
         <v>829</v>
       </c>
-      <c r="K208" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>828</v>
+      </c>
+      <c r="L208" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>254</v>
       </c>
@@ -7490,8 +7619,9 @@
         <v>2</v>
       </c>
       <c r="F209"/>
-    </row>
-    <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G209"/>
+    </row>
+    <row r="210" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>234</v>
       </c>
@@ -7504,17 +7634,17 @@
       <c r="E210" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G210" t="s">
-        <v>830</v>
-      </c>
-      <c r="I210" t="s">
+      <c r="H210" t="s">
         <v>829</v>
       </c>
-      <c r="K210" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>828</v>
+      </c>
+      <c r="L210" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -7525,8 +7655,9 @@
         <v>2</v>
       </c>
       <c r="F211"/>
-    </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G211"/>
+    </row>
+    <row r="212" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -7543,10 +7674,10 @@
         <v>2</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -7563,10 +7694,10 @@
         <v>2</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -7574,7 +7705,7 @@
         <v>222</v>
       </c>
       <c r="C214" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>223</v>
@@ -7583,10 +7714,10 @@
         <v>2</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -7594,7 +7725,7 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>221</v>
@@ -7603,10 +7734,10 @@
         <v>2</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -7623,10 +7754,10 @@
         <v>2</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -7637,8 +7768,9 @@
         <v>2</v>
       </c>
       <c r="F217"/>
-    </row>
-    <row r="218" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G217"/>
+    </row>
+    <row r="218" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>203</v>
       </c>
@@ -7649,8 +7781,9 @@
         <v>2</v>
       </c>
       <c r="F218"/>
-    </row>
-    <row r="219" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G218"/>
+    </row>
+    <row r="219" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>213</v>
       </c>
@@ -7661,8 +7794,9 @@
         <v>2</v>
       </c>
       <c r="F219"/>
-    </row>
-    <row r="220" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G219"/>
+    </row>
+    <row r="220" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>211</v>
       </c>
@@ -7673,8 +7807,9 @@
         <v>2</v>
       </c>
       <c r="F220"/>
-    </row>
-    <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G220"/>
+    </row>
+    <row r="221" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>215</v>
       </c>
@@ -7687,17 +7822,17 @@
       <c r="E221" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G221" t="s">
-        <v>830</v>
-      </c>
-      <c r="I221" t="s">
+      <c r="H221" t="s">
         <v>829</v>
       </c>
-      <c r="K221" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>828</v>
+      </c>
+      <c r="L221" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>215</v>
       </c>
@@ -7708,8 +7843,9 @@
         <v>2</v>
       </c>
       <c r="F222"/>
-    </row>
-    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G222"/>
+    </row>
+    <row r="223" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>207</v>
       </c>
@@ -7725,17 +7861,17 @@
       <c r="E223" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G223" t="s">
-        <v>830</v>
-      </c>
-      <c r="I223" t="s">
+      <c r="H223" t="s">
         <v>829</v>
       </c>
-      <c r="K223" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>828</v>
+      </c>
+      <c r="L223" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -7746,8 +7882,9 @@
         <v>2</v>
       </c>
       <c r="F224"/>
-    </row>
-    <row r="225" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G224"/>
+    </row>
+    <row r="225" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -7758,8 +7895,9 @@
         <v>2</v>
       </c>
       <c r="F225"/>
-    </row>
-    <row r="226" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G225"/>
+    </row>
+    <row r="226" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>263</v>
       </c>
@@ -7767,7 +7905,7 @@
         <v>265</v>
       </c>
       <c r="C226" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>266</v>
@@ -7775,11 +7913,11 @@
       <c r="E226" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G226" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>263</v>
       </c>
@@ -7796,10 +7934,10 @@
         <v>2</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>263</v>
       </c>
@@ -7807,7 +7945,7 @@
         <v>117</v>
       </c>
       <c r="C228" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>273</v>
@@ -7815,11 +7953,11 @@
       <c r="E228" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G228" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>263</v>
       </c>
@@ -7827,7 +7965,7 @@
         <v>267</v>
       </c>
       <c r="C229" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>268</v>
@@ -7836,10 +7974,10 @@
         <v>2</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>263</v>
       </c>
@@ -7855,11 +7993,11 @@
       <c r="E230" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G230" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>263</v>
       </c>
@@ -7870,17 +8008,18 @@
         <v>2</v>
       </c>
       <c r="F231"/>
-      <c r="G231" t="s">
-        <v>830</v>
-      </c>
-      <c r="I231" t="s">
+      <c r="G231"/>
+      <c r="H231" t="s">
         <v>829</v>
       </c>
-      <c r="K231" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J231" t="s">
+        <v>828</v>
+      </c>
+      <c r="L231" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>274</v>
       </c>
@@ -7891,8 +8030,9 @@
         <v>2</v>
       </c>
       <c r="F232"/>
-    </row>
-    <row r="233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G232"/>
+    </row>
+    <row r="233" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>260</v>
       </c>
@@ -7905,17 +8045,17 @@
       <c r="E233" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G233" t="s">
-        <v>830</v>
-      </c>
-      <c r="I233" t="s">
+      <c r="H233" t="s">
         <v>829</v>
       </c>
-      <c r="K233" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J233" t="s">
+        <v>828</v>
+      </c>
+      <c r="L233" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>260</v>
       </c>
@@ -7926,8 +8066,9 @@
         <v>2</v>
       </c>
       <c r="F234"/>
-    </row>
-    <row r="235" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G234"/>
+    </row>
+    <row r="235" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>278</v>
       </c>
@@ -7938,8 +8079,9 @@
         <v>2</v>
       </c>
       <c r="F235"/>
-    </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G235"/>
+    </row>
+    <row r="236" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>283</v>
       </c>
@@ -7956,10 +8098,10 @@
         <v>2</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>283</v>
       </c>
@@ -7976,10 +8118,10 @@
         <v>2</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>283</v>
       </c>
@@ -7996,10 +8138,10 @@
         <v>2</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>283</v>
       </c>
@@ -8015,11 +8157,11 @@
       <c r="E239" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G239" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>283</v>
       </c>
@@ -8035,11 +8177,11 @@
       <c r="E240" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G240" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>283</v>
       </c>
@@ -8055,11 +8197,11 @@
       <c r="E241" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G241" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>283</v>
       </c>
@@ -8075,11 +8217,11 @@
       <c r="E242" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G242" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>283</v>
       </c>
@@ -8090,17 +8232,18 @@
         <v>2</v>
       </c>
       <c r="F243"/>
-      <c r="G243" t="s">
-        <v>830</v>
-      </c>
-      <c r="I243" t="s">
+      <c r="G243"/>
+      <c r="H243" t="s">
         <v>829</v>
       </c>
-      <c r="K243" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>828</v>
+      </c>
+      <c r="L243" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>301</v>
       </c>
@@ -8111,8 +8254,9 @@
         <v>2</v>
       </c>
       <c r="F244"/>
-    </row>
-    <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G244"/>
+    </row>
+    <row r="245" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -8125,17 +8269,17 @@
       <c r="E245" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G245" t="s">
-        <v>830</v>
-      </c>
-      <c r="I245" t="s">
+      <c r="H245" t="s">
         <v>829</v>
       </c>
-      <c r="K245" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>828</v>
+      </c>
+      <c r="L245" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>280</v>
       </c>
@@ -8146,8 +8290,9 @@
         <v>2</v>
       </c>
       <c r="F246"/>
-    </row>
-    <row r="247" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G246"/>
+    </row>
+    <row r="247" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>305</v>
       </c>
@@ -8158,17 +8303,18 @@
         <v>2</v>
       </c>
       <c r="F247"/>
-      <c r="G247" t="s">
-        <v>830</v>
-      </c>
-      <c r="I247" t="s">
+      <c r="G247"/>
+      <c r="H247" t="s">
         <v>829</v>
       </c>
-      <c r="K247" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J247" t="s">
+        <v>828</v>
+      </c>
+      <c r="L247" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>309</v>
       </c>
@@ -8185,10 +8331,10 @@
         <v>2</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>309</v>
       </c>
@@ -8199,17 +8345,18 @@
         <v>2</v>
       </c>
       <c r="F249"/>
-      <c r="G249" t="s">
-        <v>830</v>
-      </c>
-      <c r="I249" t="s">
+      <c r="G249"/>
+      <c r="H249" t="s">
         <v>829</v>
       </c>
-      <c r="K249" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>828</v>
+      </c>
+      <c r="L249" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>307</v>
       </c>
@@ -8220,8 +8367,9 @@
         <v>2</v>
       </c>
       <c r="F250"/>
-    </row>
-    <row r="251" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G250"/>
+    </row>
+    <row r="251" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>312</v>
       </c>
@@ -8232,8 +8380,9 @@
         <v>2</v>
       </c>
       <c r="F251"/>
-    </row>
-    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G251"/>
+    </row>
+    <row r="252" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>317</v>
       </c>
@@ -8249,11 +8398,11 @@
       <c r="E252" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G252" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H252" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>317</v>
       </c>
@@ -8269,11 +8418,11 @@
       <c r="E253" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G253" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>317</v>
       </c>
@@ -8289,11 +8438,11 @@
       <c r="E254" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G254" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>317</v>
       </c>
@@ -8309,11 +8458,11 @@
       <c r="E255" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G255" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H255" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>317</v>
       </c>
@@ -8329,11 +8478,11 @@
       <c r="E256" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G256" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>317</v>
       </c>
@@ -8341,7 +8490,7 @@
         <v>319</v>
       </c>
       <c r="C257" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>320</v>
@@ -8349,11 +8498,11 @@
       <c r="E257" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G257" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>317</v>
       </c>
@@ -8361,7 +8510,7 @@
         <v>321</v>
       </c>
       <c r="C258" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>322</v>
@@ -8369,11 +8518,11 @@
       <c r="E258" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G258" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>317</v>
       </c>
@@ -8381,7 +8530,7 @@
         <v>323</v>
       </c>
       <c r="C259" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>324</v>
@@ -8389,11 +8538,11 @@
       <c r="E259" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G259" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>317</v>
       </c>
@@ -8404,17 +8553,18 @@
         <v>2</v>
       </c>
       <c r="F260"/>
-      <c r="G260" t="s">
-        <v>830</v>
-      </c>
-      <c r="I260" t="s">
+      <c r="G260"/>
+      <c r="H260" t="s">
         <v>829</v>
       </c>
-      <c r="K260" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>828</v>
+      </c>
+      <c r="L260" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>336</v>
       </c>
@@ -8425,8 +8575,9 @@
         <v>2</v>
       </c>
       <c r="F261"/>
-    </row>
-    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G261"/>
+    </row>
+    <row r="262" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -8439,17 +8590,17 @@
       <c r="E262" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G262" t="s">
-        <v>830</v>
-      </c>
-      <c r="I262" t="s">
+      <c r="H262" t="s">
         <v>829</v>
       </c>
-      <c r="K262" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J262" t="s">
+        <v>828</v>
+      </c>
+      <c r="L262" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>314</v>
       </c>
@@ -8460,8 +8611,9 @@
         <v>2</v>
       </c>
       <c r="F263"/>
-    </row>
-    <row r="264" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G263"/>
+    </row>
+    <row r="264" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>340</v>
       </c>
@@ -8472,17 +8624,18 @@
         <v>2</v>
       </c>
       <c r="F264"/>
-      <c r="G264" t="s">
-        <v>830</v>
-      </c>
-      <c r="I264" t="s">
+      <c r="G264"/>
+      <c r="H264" t="s">
         <v>829</v>
       </c>
-      <c r="K264" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J264" t="s">
+        <v>828</v>
+      </c>
+      <c r="L264" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>344</v>
       </c>
@@ -8499,10 +8652,10 @@
         <v>2</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>344</v>
       </c>
@@ -8518,14 +8671,14 @@
       <c r="E266" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G266" t="s">
-        <v>832</v>
-      </c>
-      <c r="K266" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>831</v>
+      </c>
+      <c r="L266" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>344</v>
       </c>
@@ -8536,17 +8689,18 @@
         <v>2</v>
       </c>
       <c r="F267"/>
-      <c r="G267" t="s">
-        <v>830</v>
-      </c>
-      <c r="I267" t="s">
+      <c r="G267"/>
+      <c r="H267" t="s">
         <v>829</v>
       </c>
-      <c r="K267" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J267" t="s">
+        <v>828</v>
+      </c>
+      <c r="L267" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>342</v>
       </c>
@@ -8557,8 +8711,9 @@
         <v>2</v>
       </c>
       <c r="F268"/>
-    </row>
-    <row r="269" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G268"/>
+    </row>
+    <row r="269" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>352</v>
       </c>
@@ -8569,8 +8724,9 @@
         <v>2</v>
       </c>
       <c r="F269"/>
-    </row>
-    <row r="270" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G269"/>
+    </row>
+    <row r="270" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>365</v>
       </c>
@@ -8586,11 +8742,11 @@
       <c r="E270" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G270" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H270" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>365</v>
       </c>
@@ -8607,10 +8763,10 @@
         <v>2</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>365</v>
       </c>
@@ -8626,11 +8782,11 @@
       <c r="E272" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G272" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>365</v>
       </c>
@@ -8638,7 +8794,7 @@
         <v>367</v>
       </c>
       <c r="C273" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>368</v>
@@ -8646,11 +8802,11 @@
       <c r="E273" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G273" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H273" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>365</v>
       </c>
@@ -8666,11 +8822,11 @@
       <c r="E274" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G274" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H274" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>365</v>
       </c>
@@ -8686,11 +8842,11 @@
       <c r="E275" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G275" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H275" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>365</v>
       </c>
@@ -8706,11 +8862,11 @@
       <c r="E276" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G276" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>365</v>
       </c>
@@ -8726,11 +8882,11 @@
       <c r="E277" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G277" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>365</v>
       </c>
@@ -8746,11 +8902,11 @@
       <c r="E278" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G278" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H278" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>365</v>
       </c>
@@ -8758,7 +8914,7 @@
         <v>369</v>
       </c>
       <c r="C279" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>370</v>
@@ -8766,11 +8922,11 @@
       <c r="E279" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G279" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>365</v>
       </c>
@@ -8781,17 +8937,18 @@
         <v>2</v>
       </c>
       <c r="F280"/>
-      <c r="G280" t="s">
-        <v>830</v>
-      </c>
-      <c r="I280" t="s">
+      <c r="G280"/>
+      <c r="H280" t="s">
         <v>829</v>
       </c>
-      <c r="K280" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J280" t="s">
+        <v>828</v>
+      </c>
+      <c r="L280" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>350</v>
       </c>
@@ -8802,8 +8959,9 @@
         <v>2</v>
       </c>
       <c r="F281"/>
-    </row>
-    <row r="282" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G281"/>
+    </row>
+    <row r="282" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>360</v>
       </c>
@@ -8814,8 +8972,9 @@
         <v>2</v>
       </c>
       <c r="F282"/>
-    </row>
-    <row r="283" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G282"/>
+    </row>
+    <row r="283" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>358</v>
       </c>
@@ -8826,8 +8985,9 @@
         <v>2</v>
       </c>
       <c r="F283"/>
-    </row>
-    <row r="284" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G283"/>
+    </row>
+    <row r="284" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>362</v>
       </c>
@@ -8840,17 +9000,17 @@
       <c r="E284" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G284" t="s">
-        <v>830</v>
-      </c>
-      <c r="I284" t="s">
+      <c r="H284" t="s">
         <v>829</v>
       </c>
-      <c r="K284" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J284" t="s">
+        <v>828</v>
+      </c>
+      <c r="L284" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>362</v>
       </c>
@@ -8861,8 +9021,9 @@
         <v>2</v>
       </c>
       <c r="F285"/>
-    </row>
-    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G285"/>
+    </row>
+    <row r="286" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>354</v>
       </c>
@@ -8878,17 +9039,17 @@
       <c r="E286" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G286" t="s">
-        <v>830</v>
-      </c>
-      <c r="I286" t="s">
+      <c r="H286" t="s">
         <v>829</v>
       </c>
-      <c r="K286" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J286" t="s">
+        <v>828</v>
+      </c>
+      <c r="L286" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>354</v>
       </c>
@@ -8899,8 +9060,9 @@
         <v>2</v>
       </c>
       <c r="F287"/>
-    </row>
-    <row r="288" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G287"/>
+    </row>
+    <row r="288" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>391</v>
       </c>
@@ -8911,17 +9073,18 @@
         <v>2</v>
       </c>
       <c r="F288"/>
-      <c r="G288" t="s">
-        <v>830</v>
-      </c>
-      <c r="I288" t="s">
+      <c r="G288"/>
+      <c r="H288" t="s">
         <v>829</v>
       </c>
-      <c r="K288" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J288" t="s">
+        <v>828</v>
+      </c>
+      <c r="L288" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -8929,7 +9092,7 @@
         <v>397</v>
       </c>
       <c r="C289" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>398</v>
@@ -8938,10 +9101,10 @@
         <v>2</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>395</v>
       </c>
@@ -8958,10 +9121,10 @@
         <v>2</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>395</v>
       </c>
@@ -8969,7 +9132,7 @@
         <v>117</v>
       </c>
       <c r="C291" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>400</v>
@@ -8977,11 +9140,11 @@
       <c r="E291" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G291" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H291" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>395</v>
       </c>
@@ -8992,17 +9155,18 @@
         <v>2</v>
       </c>
       <c r="F292"/>
-      <c r="G292" t="s">
-        <v>830</v>
-      </c>
-      <c r="I292" t="s">
+      <c r="G292"/>
+      <c r="H292" t="s">
         <v>829</v>
       </c>
-      <c r="K292" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J292" t="s">
+        <v>828</v>
+      </c>
+      <c r="L292" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>393</v>
       </c>
@@ -9013,8 +9177,9 @@
         <v>2</v>
       </c>
       <c r="F293"/>
-    </row>
-    <row r="294" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G293"/>
+    </row>
+    <row r="294" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>384</v>
       </c>
@@ -9025,17 +9190,18 @@
         <v>2</v>
       </c>
       <c r="F294"/>
-      <c r="G294" t="s">
-        <v>830</v>
-      </c>
-      <c r="I294" t="s">
+      <c r="G294"/>
+      <c r="H294" t="s">
         <v>829</v>
       </c>
-      <c r="K294" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J294" t="s">
+        <v>828</v>
+      </c>
+      <c r="L294" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>388</v>
       </c>
@@ -9052,10 +9218,10 @@
         <v>2</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>388</v>
       </c>
@@ -9066,17 +9232,18 @@
         <v>2</v>
       </c>
       <c r="F296"/>
-      <c r="G296" t="s">
-        <v>830</v>
-      </c>
-      <c r="I296" t="s">
+      <c r="G296"/>
+      <c r="H296" t="s">
         <v>829</v>
       </c>
-      <c r="K296" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J296" t="s">
+        <v>828</v>
+      </c>
+      <c r="L296" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>386</v>
       </c>
@@ -9087,8 +9254,9 @@
         <v>2</v>
       </c>
       <c r="F297"/>
-    </row>
-    <row r="298" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G297"/>
+    </row>
+    <row r="298" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>401</v>
       </c>
@@ -9099,17 +9267,18 @@
         <v>2</v>
       </c>
       <c r="F298"/>
-      <c r="G298" t="s">
-        <v>830</v>
-      </c>
-      <c r="I298" t="s">
+      <c r="G298"/>
+      <c r="H298" t="s">
         <v>829</v>
       </c>
-      <c r="K298" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J298" t="s">
+        <v>828</v>
+      </c>
+      <c r="L298" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>405</v>
       </c>
@@ -9126,10 +9295,10 @@
         <v>2</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>405</v>
       </c>
@@ -9145,11 +9314,11 @@
       <c r="E300" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G300" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H300" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>405</v>
       </c>
@@ -9165,11 +9334,11 @@
       <c r="E301" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G301" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H301" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>405</v>
       </c>
@@ -9180,17 +9349,18 @@
         <v>2</v>
       </c>
       <c r="F302"/>
-      <c r="G302" t="s">
-        <v>830</v>
-      </c>
-      <c r="I302" t="s">
+      <c r="G302"/>
+      <c r="H302" t="s">
         <v>829</v>
       </c>
-      <c r="K302" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J302" t="s">
+        <v>828</v>
+      </c>
+      <c r="L302" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>403</v>
       </c>
@@ -9201,8 +9371,9 @@
         <v>2</v>
       </c>
       <c r="F303"/>
-    </row>
-    <row r="304" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G303"/>
+    </row>
+    <row r="304" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>415</v>
       </c>
@@ -9213,17 +9384,18 @@
         <v>2</v>
       </c>
       <c r="F304"/>
-      <c r="G304" t="s">
-        <v>830</v>
-      </c>
-      <c r="I304" t="s">
+      <c r="G304"/>
+      <c r="H304" t="s">
         <v>829</v>
       </c>
-      <c r="K304" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J304" t="s">
+        <v>828</v>
+      </c>
+      <c r="L304" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>419</v>
       </c>
@@ -9239,11 +9411,11 @@
       <c r="E305" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G305" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H305" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>419</v>
       </c>
@@ -9260,10 +9432,10 @@
         <v>2</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>419</v>
       </c>
@@ -9274,17 +9446,18 @@
         <v>2</v>
       </c>
       <c r="F307"/>
-      <c r="G307" t="s">
-        <v>830</v>
-      </c>
-      <c r="I307" t="s">
+      <c r="G307"/>
+      <c r="H307" t="s">
         <v>829</v>
       </c>
-      <c r="K307" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J307" t="s">
+        <v>828</v>
+      </c>
+      <c r="L307" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>417</v>
       </c>
@@ -9295,8 +9468,9 @@
         <v>2</v>
       </c>
       <c r="F308"/>
-    </row>
-    <row r="309" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>427</v>
       </c>
@@ -9307,8 +9481,9 @@
         <v>2</v>
       </c>
       <c r="F309"/>
-    </row>
-    <row r="310" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G309"/>
+    </row>
+    <row r="310" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>432</v>
       </c>
@@ -9324,11 +9499,11 @@
       <c r="E310" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G310" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H310" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>432</v>
       </c>
@@ -9339,17 +9514,18 @@
         <v>2</v>
       </c>
       <c r="F311"/>
-      <c r="G311" t="s">
-        <v>830</v>
-      </c>
-      <c r="I311" t="s">
+      <c r="G311"/>
+      <c r="H311" t="s">
         <v>829</v>
       </c>
-      <c r="K311" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J311" t="s">
+        <v>828</v>
+      </c>
+      <c r="L311" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>435</v>
       </c>
@@ -9360,8 +9536,9 @@
         <v>2</v>
       </c>
       <c r="F312"/>
-    </row>
-    <row r="313" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G312"/>
+    </row>
+    <row r="313" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>429</v>
       </c>
@@ -9374,17 +9551,17 @@
       <c r="E313" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G313" t="s">
-        <v>830</v>
-      </c>
-      <c r="I313" t="s">
+      <c r="H313" t="s">
         <v>829</v>
       </c>
-      <c r="K313" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J313" t="s">
+        <v>828</v>
+      </c>
+      <c r="L313" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>429</v>
       </c>
@@ -9395,8 +9572,9 @@
         <v>2</v>
       </c>
       <c r="F314"/>
-    </row>
-    <row r="315" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G314"/>
+    </row>
+    <row r="315" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>439</v>
       </c>
@@ -9407,17 +9585,18 @@
         <v>2</v>
       </c>
       <c r="F315"/>
-      <c r="G315" t="s">
-        <v>830</v>
-      </c>
-      <c r="I315" t="s">
+      <c r="G315"/>
+      <c r="H315" t="s">
         <v>829</v>
       </c>
-      <c r="K315" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J315" t="s">
+        <v>828</v>
+      </c>
+      <c r="L315" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>443</v>
       </c>
@@ -9434,10 +9613,10 @@
         <v>2</v>
       </c>
       <c r="F316" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>443</v>
       </c>
@@ -9453,11 +9632,11 @@
       <c r="E317" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G317" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H317" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>443</v>
       </c>
@@ -9473,11 +9652,11 @@
       <c r="E318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G318" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H318" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>443</v>
       </c>
@@ -9488,17 +9667,18 @@
         <v>2</v>
       </c>
       <c r="F319"/>
-      <c r="G319" t="s">
-        <v>830</v>
-      </c>
-      <c r="I319" t="s">
+      <c r="G319"/>
+      <c r="H319" t="s">
         <v>829</v>
       </c>
-      <c r="K319" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J319" t="s">
+        <v>828</v>
+      </c>
+      <c r="L319" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>441</v>
       </c>
@@ -9509,8 +9689,9 @@
         <v>2</v>
       </c>
       <c r="F320"/>
-    </row>
-    <row r="321" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G320"/>
+    </row>
+    <row r="321" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>451</v>
       </c>
@@ -9521,17 +9702,18 @@
         <v>2</v>
       </c>
       <c r="F321"/>
-      <c r="G321" t="s">
-        <v>830</v>
-      </c>
-      <c r="I321" t="s">
+      <c r="G321"/>
+      <c r="H321" t="s">
         <v>829</v>
       </c>
-      <c r="K321" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J321" t="s">
+        <v>828</v>
+      </c>
+      <c r="L321" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>455</v>
       </c>
@@ -9548,10 +9730,10 @@
         <v>2</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>455</v>
       </c>
@@ -9567,11 +9749,11 @@
       <c r="E323" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G323" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H323" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>455</v>
       </c>
@@ -9582,17 +9764,18 @@
         <v>2</v>
       </c>
       <c r="F324"/>
-      <c r="G324" t="s">
-        <v>830</v>
-      </c>
-      <c r="I324" t="s">
+      <c r="G324"/>
+      <c r="H324" t="s">
         <v>829</v>
       </c>
-      <c r="K324" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J324" t="s">
+        <v>828</v>
+      </c>
+      <c r="L324" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>453</v>
       </c>
@@ -9603,8 +9786,9 @@
         <v>2</v>
       </c>
       <c r="F325"/>
-    </row>
-    <row r="326" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G325"/>
+    </row>
+    <row r="326" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>459</v>
       </c>
@@ -9615,8 +9799,9 @@
         <v>2</v>
       </c>
       <c r="F326"/>
-    </row>
-    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G326"/>
+    </row>
+    <row r="327" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>464</v>
       </c>
@@ -9633,10 +9818,10 @@
         <v>2</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>464</v>
       </c>
@@ -9652,11 +9837,11 @@
       <c r="E328" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G328" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H328" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>464</v>
       </c>
@@ -9672,11 +9857,11 @@
       <c r="E329" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G329" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H329" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>464</v>
       </c>
@@ -9687,17 +9872,18 @@
         <v>2</v>
       </c>
       <c r="F330"/>
-      <c r="G330" t="s">
-        <v>830</v>
-      </c>
-      <c r="I330" t="s">
+      <c r="G330"/>
+      <c r="H330" t="s">
         <v>829</v>
       </c>
-      <c r="K330" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J330" t="s">
+        <v>828</v>
+      </c>
+      <c r="L330" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>472</v>
       </c>
@@ -9708,8 +9894,9 @@
         <v>2</v>
       </c>
       <c r="F331"/>
-    </row>
-    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G331"/>
+    </row>
+    <row r="332" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>461</v>
       </c>
@@ -9722,17 +9909,17 @@
       <c r="E332" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G332" t="s">
-        <v>830</v>
-      </c>
-      <c r="I332" t="s">
+      <c r="H332" t="s">
         <v>829</v>
       </c>
-      <c r="K332" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J332" t="s">
+        <v>828</v>
+      </c>
+      <c r="L332" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>461</v>
       </c>
@@ -9743,8 +9930,9 @@
         <v>2</v>
       </c>
       <c r="F333"/>
-    </row>
-    <row r="334" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G333"/>
+    </row>
+    <row r="334" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>478</v>
       </c>
@@ -9755,8 +9943,9 @@
         <v>2</v>
       </c>
       <c r="F334"/>
-    </row>
-    <row r="335" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G334"/>
+    </row>
+    <row r="335" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>491</v>
       </c>
@@ -9772,11 +9961,11 @@
       <c r="E335" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G335" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H335" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>491</v>
       </c>
@@ -9793,10 +9982,10 @@
         <v>2</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>491</v>
       </c>
@@ -9812,11 +10001,11 @@
       <c r="E337" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G337" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H337" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>491</v>
       </c>
@@ -9827,17 +10016,18 @@
         <v>2</v>
       </c>
       <c r="F338"/>
-      <c r="G338" t="s">
-        <v>830</v>
-      </c>
-      <c r="I338" t="s">
+      <c r="G338"/>
+      <c r="H338" t="s">
         <v>829</v>
       </c>
-      <c r="K338" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J338" t="s">
+        <v>828</v>
+      </c>
+      <c r="L338" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>476</v>
       </c>
@@ -9848,8 +10038,9 @@
         <v>2</v>
       </c>
       <c r="F339"/>
-    </row>
-    <row r="340" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G339"/>
+    </row>
+    <row r="340" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>486</v>
       </c>
@@ -9860,8 +10051,9 @@
         <v>2</v>
       </c>
       <c r="F340"/>
-    </row>
-    <row r="341" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G340"/>
+    </row>
+    <row r="341" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>484</v>
       </c>
@@ -9872,8 +10064,9 @@
         <v>2</v>
       </c>
       <c r="F341"/>
-    </row>
-    <row r="342" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G341"/>
+    </row>
+    <row r="342" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>488</v>
       </c>
@@ -9886,17 +10079,17 @@
       <c r="E342" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G342" t="s">
-        <v>830</v>
-      </c>
-      <c r="I342" t="s">
+      <c r="H342" t="s">
         <v>829</v>
       </c>
-      <c r="K342" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J342" t="s">
+        <v>828</v>
+      </c>
+      <c r="L342" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>488</v>
       </c>
@@ -9907,8 +10100,9 @@
         <v>2</v>
       </c>
       <c r="F343"/>
-    </row>
-    <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G343"/>
+    </row>
+    <row r="344" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>480</v>
       </c>
@@ -9924,17 +10118,17 @@
       <c r="E344" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G344" t="s">
-        <v>830</v>
-      </c>
-      <c r="I344" t="s">
+      <c r="H344" t="s">
         <v>829</v>
       </c>
-      <c r="K344" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J344" t="s">
+        <v>828</v>
+      </c>
+      <c r="L344" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>480</v>
       </c>
@@ -9945,8 +10139,9 @@
         <v>2</v>
       </c>
       <c r="F345"/>
-    </row>
-    <row r="346" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G345"/>
+    </row>
+    <row r="346" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>500</v>
       </c>
@@ -9957,8 +10152,9 @@
         <v>2</v>
       </c>
       <c r="F346"/>
-    </row>
-    <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G346"/>
+    </row>
+    <row r="347" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>505</v>
       </c>
@@ -9975,10 +10171,10 @@
         <v>2</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>505</v>
       </c>
@@ -9986,7 +10182,7 @@
         <v>507</v>
       </c>
       <c r="C348" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>508</v>
@@ -9994,11 +10190,11 @@
       <c r="E348" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G348" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H348" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>505</v>
       </c>
@@ -10009,17 +10205,18 @@
         <v>2</v>
       </c>
       <c r="F349"/>
-      <c r="G349" t="s">
-        <v>830</v>
-      </c>
-      <c r="I349" t="s">
+      <c r="G349"/>
+      <c r="H349" t="s">
         <v>829</v>
       </c>
-      <c r="K349" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J349" t="s">
+        <v>828</v>
+      </c>
+      <c r="L349" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>510</v>
       </c>
@@ -10030,8 +10227,9 @@
         <v>2</v>
       </c>
       <c r="F350"/>
-    </row>
-    <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G350"/>
+    </row>
+    <row r="351" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>502</v>
       </c>
@@ -10044,17 +10242,17 @@
       <c r="E351" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G351" t="s">
-        <v>830</v>
-      </c>
-      <c r="I351" t="s">
+      <c r="H351" t="s">
         <v>829</v>
       </c>
-      <c r="K351" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J351" t="s">
+        <v>828</v>
+      </c>
+      <c r="L351" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>502</v>
       </c>
@@ -10065,8 +10263,9 @@
         <v>2</v>
       </c>
       <c r="F352"/>
-    </row>
-    <row r="353" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G352"/>
+    </row>
+    <row r="353" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>514</v>
       </c>
@@ -10077,8 +10276,9 @@
         <v>2</v>
       </c>
       <c r="F353"/>
-    </row>
-    <row r="354" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G353"/>
+    </row>
+    <row r="354" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>518</v>
       </c>
@@ -10094,11 +10294,11 @@
       <c r="E354" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G354" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H354" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>518</v>
       </c>
@@ -10109,17 +10309,18 @@
         <v>2</v>
       </c>
       <c r="F355"/>
-      <c r="G355" t="s">
-        <v>830</v>
-      </c>
-      <c r="I355" t="s">
+      <c r="G355"/>
+      <c r="H355" t="s">
         <v>829</v>
       </c>
-      <c r="K355" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J355" t="s">
+        <v>828</v>
+      </c>
+      <c r="L355" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>516</v>
       </c>
@@ -10130,8 +10331,9 @@
         <v>2</v>
       </c>
       <c r="F356"/>
-    </row>
-    <row r="357" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G356"/>
+    </row>
+    <row r="357" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>525</v>
       </c>
@@ -10142,8 +10344,9 @@
         <v>2</v>
       </c>
       <c r="F357"/>
-    </row>
-    <row r="358" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G357"/>
+    </row>
+    <row r="358" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>556</v>
       </c>
@@ -10154,8 +10357,9 @@
         <v>2</v>
       </c>
       <c r="F358"/>
-    </row>
-    <row r="359" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G358"/>
+    </row>
+    <row r="359" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>561</v>
       </c>
@@ -10166,17 +10370,18 @@
         <v>2</v>
       </c>
       <c r="F359"/>
-      <c r="G359" t="s">
-        <v>830</v>
-      </c>
-      <c r="I359" t="s">
+      <c r="G359"/>
+      <c r="H359" t="s">
         <v>829</v>
       </c>
-      <c r="K359" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J359" t="s">
+        <v>828</v>
+      </c>
+      <c r="L359" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>563</v>
       </c>
@@ -10187,8 +10392,9 @@
         <v>2</v>
       </c>
       <c r="F360"/>
-    </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G360"/>
+    </row>
+    <row r="361" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>558</v>
       </c>
@@ -10201,17 +10407,17 @@
       <c r="E361" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G361" t="s">
-        <v>830</v>
-      </c>
-      <c r="I361" t="s">
+      <c r="H361" t="s">
         <v>829</v>
       </c>
-      <c r="K361" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J361" t="s">
+        <v>828</v>
+      </c>
+      <c r="L361" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>558</v>
       </c>
@@ -10222,8 +10428,9 @@
         <v>2</v>
       </c>
       <c r="F362"/>
-    </row>
-    <row r="363" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G362"/>
+    </row>
+    <row r="363" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>567</v>
       </c>
@@ -10234,8 +10441,9 @@
         <v>2</v>
       </c>
       <c r="F363"/>
-    </row>
-    <row r="364" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G363"/>
+    </row>
+    <row r="364" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>572</v>
       </c>
@@ -10252,10 +10460,10 @@
         <v>2</v>
       </c>
       <c r="F364" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>572</v>
       </c>
@@ -10263,7 +10471,7 @@
         <v>323</v>
       </c>
       <c r="C365" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>574</v>
@@ -10272,10 +10480,10 @@
         <v>2</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>572</v>
       </c>
@@ -10292,10 +10500,10 @@
         <v>2</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>572</v>
       </c>
@@ -10306,17 +10514,18 @@
         <v>2</v>
       </c>
       <c r="F367"/>
-      <c r="G367" t="s">
-        <v>830</v>
-      </c>
-      <c r="I367" t="s">
+      <c r="G367"/>
+      <c r="H367" t="s">
         <v>829</v>
       </c>
-      <c r="K367" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J367" t="s">
+        <v>828</v>
+      </c>
+      <c r="L367" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>578</v>
       </c>
@@ -10327,8 +10536,9 @@
         <v>2</v>
       </c>
       <c r="F368"/>
-    </row>
-    <row r="369" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G368"/>
+    </row>
+    <row r="369" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>569</v>
       </c>
@@ -10341,17 +10551,17 @@
       <c r="E369" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G369" t="s">
-        <v>830</v>
-      </c>
-      <c r="I369" t="s">
+      <c r="H369" t="s">
         <v>829</v>
       </c>
-      <c r="K369" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J369" t="s">
+        <v>828</v>
+      </c>
+      <c r="L369" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>569</v>
       </c>
@@ -10362,8 +10572,9 @@
         <v>2</v>
       </c>
       <c r="F370"/>
-    </row>
-    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G370"/>
+    </row>
+    <row r="371" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>538</v>
       </c>
@@ -10380,10 +10591,10 @@
         <v>2</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>538</v>
       </c>
@@ -10400,10 +10611,10 @@
         <v>2</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>538</v>
       </c>
@@ -10420,10 +10631,10 @@
         <v>2</v>
       </c>
       <c r="F373" s="7" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>538</v>
       </c>
@@ -10440,10 +10651,10 @@
         <v>2</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>538</v>
       </c>
@@ -10451,7 +10662,7 @@
         <v>540</v>
       </c>
       <c r="C375" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D375" s="7" t="s">
         <v>541</v>
@@ -10460,10 +10671,10 @@
         <v>2</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>538</v>
       </c>
@@ -10471,7 +10682,7 @@
         <v>542</v>
       </c>
       <c r="C376" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>543</v>
@@ -10479,11 +10690,11 @@
       <c r="E376" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G376" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H376" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>538</v>
       </c>
@@ -10494,17 +10705,18 @@
         <v>2</v>
       </c>
       <c r="F377"/>
-      <c r="G377" t="s">
-        <v>830</v>
-      </c>
-      <c r="I377" t="s">
+      <c r="G377"/>
+      <c r="H377" t="s">
         <v>829</v>
       </c>
-      <c r="K377" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J377" t="s">
+        <v>828</v>
+      </c>
+      <c r="L377" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>523</v>
       </c>
@@ -10515,8 +10727,9 @@
         <v>2</v>
       </c>
       <c r="F378"/>
-    </row>
-    <row r="379" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G378"/>
+    </row>
+    <row r="379" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>584</v>
       </c>
@@ -10527,8 +10740,9 @@
         <v>2</v>
       </c>
       <c r="F379"/>
-    </row>
-    <row r="380" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G379"/>
+    </row>
+    <row r="380" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>597</v>
       </c>
@@ -10545,10 +10759,10 @@
         <v>2</v>
       </c>
       <c r="F380" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>597</v>
       </c>
@@ -10565,10 +10779,10 @@
         <v>2</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>597</v>
       </c>
@@ -10576,7 +10790,7 @@
         <v>599</v>
       </c>
       <c r="C382" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D382" s="7" t="s">
         <v>600</v>
@@ -10585,10 +10799,10 @@
         <v>2</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>597</v>
       </c>
@@ -10596,7 +10810,7 @@
         <v>601</v>
       </c>
       <c r="C383" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>602</v>
@@ -10605,10 +10819,10 @@
         <v>2</v>
       </c>
       <c r="F383" s="7" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>597</v>
       </c>
@@ -10619,17 +10833,18 @@
         <v>2</v>
       </c>
       <c r="F384"/>
-      <c r="G384" t="s">
-        <v>830</v>
-      </c>
-      <c r="I384" t="s">
+      <c r="G384"/>
+      <c r="H384" t="s">
         <v>829</v>
       </c>
-      <c r="K384" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J384" t="s">
+        <v>828</v>
+      </c>
+      <c r="L384" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>582</v>
       </c>
@@ -10640,8 +10855,9 @@
         <v>2</v>
       </c>
       <c r="F385"/>
-    </row>
-    <row r="386" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G385"/>
+    </row>
+    <row r="386" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>592</v>
       </c>
@@ -10652,8 +10868,9 @@
         <v>2</v>
       </c>
       <c r="F386"/>
-    </row>
-    <row r="387" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G386"/>
+    </row>
+    <row r="387" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>590</v>
       </c>
@@ -10664,8 +10881,9 @@
         <v>2</v>
       </c>
       <c r="F387"/>
-    </row>
-    <row r="388" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G387"/>
+    </row>
+    <row r="388" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>594</v>
       </c>
@@ -10678,17 +10896,17 @@
       <c r="E388" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G388" t="s">
-        <v>830</v>
-      </c>
-      <c r="I388" t="s">
+      <c r="H388" t="s">
         <v>829</v>
       </c>
-      <c r="K388" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J388" t="s">
+        <v>828</v>
+      </c>
+      <c r="L388" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>594</v>
       </c>
@@ -10699,8 +10917,9 @@
         <v>2</v>
       </c>
       <c r="F389"/>
-    </row>
-    <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G389"/>
+    </row>
+    <row r="390" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>586</v>
       </c>
@@ -10716,17 +10935,17 @@
       <c r="E390" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G390" t="s">
-        <v>830</v>
-      </c>
-      <c r="I390" t="s">
+      <c r="H390" t="s">
         <v>829</v>
       </c>
-      <c r="K390" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J390" t="s">
+        <v>828</v>
+      </c>
+      <c r="L390" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>586</v>
       </c>
@@ -10737,8 +10956,9 @@
         <v>2</v>
       </c>
       <c r="F391"/>
-    </row>
-    <row r="392" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G391"/>
+    </row>
+    <row r="392" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>533</v>
       </c>
@@ -10749,8 +10969,9 @@
         <v>2</v>
       </c>
       <c r="F392"/>
-    </row>
-    <row r="393" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G392"/>
+    </row>
+    <row r="393" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>531</v>
       </c>
@@ -10761,8 +10982,9 @@
         <v>2</v>
       </c>
       <c r="F393"/>
-    </row>
-    <row r="394" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G393"/>
+    </row>
+    <row r="394" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>535</v>
       </c>
@@ -10775,17 +10997,17 @@
       <c r="E394" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G394" t="s">
-        <v>830</v>
-      </c>
-      <c r="I394" t="s">
+      <c r="H394" t="s">
         <v>829</v>
       </c>
-      <c r="K394" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J394" t="s">
+        <v>828</v>
+      </c>
+      <c r="L394" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>535</v>
       </c>
@@ -10796,8 +11018,9 @@
         <v>2</v>
       </c>
       <c r="F395"/>
-    </row>
-    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G395"/>
+    </row>
+    <row r="396" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>527</v>
       </c>
@@ -10813,17 +11036,17 @@
       <c r="E396" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G396" t="s">
-        <v>830</v>
-      </c>
-      <c r="I396" t="s">
+      <c r="H396" t="s">
         <v>829</v>
       </c>
-      <c r="K396" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J396" t="s">
+        <v>828</v>
+      </c>
+      <c r="L396" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>527</v>
       </c>
@@ -10834,19 +11057,20 @@
         <v>2</v>
       </c>
       <c r="F397"/>
+      <c r="G397"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K397">
+  <autoFilter ref="A1:L397" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:K397">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L397">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:K397">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L397">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10864,6 +11088,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E63EF7654EE1C3408A7B7B89599A8866" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45a6f702f8fa813c6da5dc61f6a5ca4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b386e231a7863091022eb36492eb7713">
     <xsd:element name="properties">
@@ -10977,20 +11207,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71140C0-E837-4674-A6E9-38E9142EAFCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71140C0-E837-4674-A6E9-38E9142EAFCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAFCB1F5-B647-4EEE-B4E4-FA13BBEE2578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D03A26-E6F2-4FED-9422-1AF7B0870288}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D03A26-E6F2-4FED-9422-1AF7B0870288}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAFCB1F5-B647-4EEE-B4E4-FA13BBEE2578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/ADR_23.5.0_Semantic_Correspondence_Report.xlsx
+++ b/xlsx/ADR_23.5.0_Semantic_Correspondence_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C21A572-4EA9-8340-815F-DFE147031D6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EFC90-B1A7-874E-953D-5072691E059B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2459,9 +2459,6 @@
   </si>
   <si>
     <t>Level of semantic correspondence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Concept Definition</t>
   </si>
   <si>
     <t>Concept Identifier</t>
@@ -2894,6 +2891,9 @@
   </si>
   <si>
     <t>Additional Traces</t>
+  </si>
+  <si>
+    <t>Concept Definition</t>
   </si>
 </sst>
 </file>
@@ -3514,39 +3514,39 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>903</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>905</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -3582,14 +3582,14 @@
     <row r="11" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="21"/>
@@ -3598,7 +3598,7 @@
     <row r="13" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -3692,7 +3692,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3715,19 +3715,19 @@
         <v>800</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>806</v>
+        <v>916</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>801</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>802</v>
@@ -3758,13 +3758,13 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3780,13 +3780,13 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3802,13 +3802,13 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3824,13 +3824,13 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3846,13 +3846,13 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3868,13 +3868,13 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3890,13 +3890,13 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3912,13 +3912,13 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3934,13 +3934,13 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3956,13 +3956,13 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -3978,13 +3978,13 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4000,13 +4000,13 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4022,13 +4022,13 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4044,13 +4044,13 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4066,13 +4066,13 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4088,13 +4088,13 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4110,13 +4110,13 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4132,13 +4132,13 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4154,10 +4154,10 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="L20" t="s">
         <v>831</v>
-      </c>
-      <c r="L20" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4173,13 +4173,13 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
+        <v>828</v>
+      </c>
+      <c r="J21" t="s">
+        <v>827</v>
+      </c>
+      <c r="L21" t="s">
         <v>829</v>
-      </c>
-      <c r="J21" t="s">
-        <v>828</v>
-      </c>
-      <c r="L21" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4195,10 +4195,10 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4238,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4254,13 +4254,13 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4273,13 +4273,13 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4293,10 +4293,10 @@
         <v>614</v>
       </c>
       <c r="H27" t="s">
+        <v>833</v>
+      </c>
+      <c r="L27" t="s">
         <v>834</v>
-      </c>
-      <c r="L27" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4307,7 +4307,7 @@
         <v>612</v>
       </c>
       <c r="F28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G28"/>
     </row>
@@ -4332,7 +4332,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>9</v>
@@ -4341,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>11</v>
@@ -4364,10 +4364,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="L31" t="s">
         <v>858</v>
-      </c>
-      <c r="L31" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4383,10 +4383,10 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4402,13 +4402,13 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4421,10 +4421,10 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L34" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4438,10 +4438,10 @@
         <v>619</v>
       </c>
       <c r="H35" t="s">
+        <v>833</v>
+      </c>
+      <c r="L35" t="s">
         <v>834</v>
-      </c>
-      <c r="L35" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4452,7 +4452,7 @@
         <v>618</v>
       </c>
       <c r="F36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G36"/>
     </row>
@@ -4469,13 +4469,13 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J37" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4486,7 +4486,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -4495,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4506,7 +4506,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>21</v>
@@ -4515,10 +4515,10 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4534,13 +4534,13 @@
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J40" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L40" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4556,13 +4556,13 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4594,7 +4594,7 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4625,7 +4625,7 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>62</v>
@@ -4634,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4650,13 +4650,13 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4672,13 +4672,13 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4695,13 +4695,13 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J48" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L48" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>51</v>
@@ -4754,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4774,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4794,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4810,13 +4810,13 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J54" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L54" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4872,13 +4872,13 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L58" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4911,13 +4911,13 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J60" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L60" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -4946,13 +4946,13 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J62" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L62" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4972,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4992,7 +4992,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5003,7 +5003,7 @@
         <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>118</v>
@@ -5012,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5032,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5048,13 +5048,13 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J67" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5070,13 +5070,13 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J68" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L68" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5149,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5165,13 +5165,13 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J73" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L73" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5201,13 +5201,13 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J75" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5236,13 +5236,13 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L77" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5253,7 +5253,7 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>100</v>
@@ -5262,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5273,7 +5273,7 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>75</v>
@@ -5282,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5293,7 +5293,7 @@
         <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>98</v>
@@ -5302,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5313,7 +5313,7 @@
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>77</v>
@@ -5322,7 +5322,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5333,7 +5333,7 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>79</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>81</v>
@@ -5362,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5402,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5422,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5442,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5482,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
         <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>83</v>
@@ -5502,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5518,13 +5518,13 @@
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L91" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5540,13 +5540,13 @@
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J92" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L92" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5667,13 +5667,13 @@
         <v>2</v>
       </c>
       <c r="H101" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J101" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L101" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5706,13 +5706,13 @@
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J103" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L103" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -5749,15 +5749,15 @@
         <v>621</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L106" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5768,13 +5768,13 @@
         <v>625</v>
       </c>
       <c r="C107" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>626</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G107" s="29"/>
     </row>
@@ -5789,7 +5789,7 @@
         <v>623</v>
       </c>
       <c r="F108" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G108"/>
     </row>
@@ -5801,7 +5801,7 @@
         <v>633</v>
       </c>
       <c r="C109" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>635</v>
@@ -5810,7 +5810,7 @@
         <v>634</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -5821,7 +5821,7 @@
         <v>639</v>
       </c>
       <c r="C110" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>641</v>
@@ -5830,7 +5830,7 @@
         <v>640</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
         <v>636</v>
       </c>
       <c r="C111" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>638</v>
@@ -5850,7 +5850,7 @@
         <v>637</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -5861,7 +5861,7 @@
         <v>630</v>
       </c>
       <c r="C112" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>632</v>
@@ -5870,7 +5870,7 @@
         <v>631</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -5886,10 +5886,10 @@
       <c r="F113"/>
       <c r="G113"/>
       <c r="H113" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L113" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5900,13 +5900,13 @@
         <v>625</v>
       </c>
       <c r="C114" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>644</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G114" s="29"/>
     </row>
@@ -5918,7 +5918,7 @@
         <v>643</v>
       </c>
       <c r="F115" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G115"/>
     </row>
@@ -5930,7 +5930,7 @@
         <v>648</v>
       </c>
       <c r="C116" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>650</v>
@@ -5939,7 +5939,7 @@
         <v>649</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -5950,7 +5950,7 @@
         <v>651</v>
       </c>
       <c r="C117" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>653</v>
@@ -5959,7 +5959,7 @@
         <v>652</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -5970,7 +5970,7 @@
         <v>654</v>
       </c>
       <c r="C118" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>656</v>
@@ -5979,7 +5979,7 @@
         <v>655</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -5995,10 +5995,10 @@
       <c r="F119"/>
       <c r="G119"/>
       <c r="H119" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L119" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6009,13 +6009,13 @@
         <v>625</v>
       </c>
       <c r="C120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>659</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G120" s="29"/>
     </row>
@@ -6027,7 +6027,7 @@
         <v>658</v>
       </c>
       <c r="F121" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G121"/>
     </row>
@@ -6039,7 +6039,7 @@
         <v>662</v>
       </c>
       <c r="C122" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>664</v>
@@ -6048,7 +6048,7 @@
         <v>663</v>
       </c>
       <c r="H122" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6059,7 +6059,7 @@
         <v>665</v>
       </c>
       <c r="C123" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>667</v>
@@ -6068,7 +6068,7 @@
         <v>666</v>
       </c>
       <c r="H123" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -6081,10 +6081,10 @@
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L124" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6095,13 +6095,13 @@
         <v>625</v>
       </c>
       <c r="C125" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>670</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G125" s="29"/>
     </row>
@@ -6123,7 +6123,7 @@
         <v>673</v>
       </c>
       <c r="C127" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>675</v>
@@ -6132,7 +6132,7 @@
         <v>674</v>
       </c>
       <c r="H127" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="208" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>676</v>
       </c>
       <c r="C128" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>678</v>
@@ -6152,7 +6152,7 @@
         <v>677</v>
       </c>
       <c r="H128" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -6163,7 +6163,7 @@
         <v>682</v>
       </c>
       <c r="C129" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>684</v>
@@ -6172,7 +6172,7 @@
         <v>683</v>
       </c>
       <c r="H129" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>679</v>
       </c>
       <c r="C130" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>681</v>
@@ -6192,7 +6192,7 @@
         <v>680</v>
       </c>
       <c r="H130" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -6203,7 +6203,7 @@
         <v>685</v>
       </c>
       <c r="C131" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>687</v>
@@ -6212,7 +6212,7 @@
         <v>686</v>
       </c>
       <c r="H131" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>688</v>
       </c>
       <c r="C132" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>690</v>
@@ -6232,7 +6232,7 @@
         <v>689</v>
       </c>
       <c r="H132" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6243,7 +6243,7 @@
         <v>691</v>
       </c>
       <c r="C133" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>693</v>
@@ -6252,7 +6252,7 @@
         <v>692</v>
       </c>
       <c r="H133" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>694</v>
       </c>
       <c r="C134" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>696</v>
@@ -6272,7 +6272,7 @@
         <v>695</v>
       </c>
       <c r="H134" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -6285,10 +6285,10 @@
       <c r="F135"/>
       <c r="G135"/>
       <c r="H135" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L135" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6299,13 +6299,13 @@
         <v>625</v>
       </c>
       <c r="C136" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>699</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G136" s="29"/>
     </row>
@@ -6327,13 +6327,13 @@
         <v>704</v>
       </c>
       <c r="C138" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>705</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6344,13 +6344,13 @@
         <v>706</v>
       </c>
       <c r="C139" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>707</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6361,13 +6361,13 @@
         <v>702</v>
       </c>
       <c r="C140" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>703</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6378,13 +6378,13 @@
         <v>708</v>
       </c>
       <c r="C141" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>709</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -6397,10 +6397,10 @@
       <c r="F142"/>
       <c r="G142"/>
       <c r="H142" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L142" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6411,13 +6411,13 @@
         <v>625</v>
       </c>
       <c r="C143" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>712</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G143" s="29"/>
     </row>
@@ -6429,7 +6429,7 @@
         <v>711</v>
       </c>
       <c r="F144" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G144"/>
     </row>
@@ -6441,13 +6441,13 @@
         <v>715</v>
       </c>
       <c r="C145" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>716</v>
       </c>
       <c r="H145" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6458,13 +6458,13 @@
         <v>717</v>
       </c>
       <c r="C146" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>718</v>
       </c>
       <c r="H146" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6475,13 +6475,13 @@
         <v>719</v>
       </c>
       <c r="C147" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>720</v>
       </c>
       <c r="H147" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6492,13 +6492,13 @@
         <v>721</v>
       </c>
       <c r="C148" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>722</v>
       </c>
       <c r="H148" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6509,13 +6509,13 @@
         <v>729</v>
       </c>
       <c r="C149" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>730</v>
       </c>
       <c r="H149" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6526,13 +6526,13 @@
         <v>731</v>
       </c>
       <c r="C150" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>732</v>
       </c>
       <c r="H150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6543,13 +6543,13 @@
         <v>723</v>
       </c>
       <c r="C151" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>724</v>
       </c>
       <c r="H151" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6560,13 +6560,13 @@
         <v>725</v>
       </c>
       <c r="C152" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>726</v>
       </c>
       <c r="H152" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6577,13 +6577,13 @@
         <v>727</v>
       </c>
       <c r="C153" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>728</v>
       </c>
       <c r="H153" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6594,13 +6594,13 @@
         <v>733</v>
       </c>
       <c r="C154" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>734</v>
       </c>
       <c r="H154" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6611,13 +6611,13 @@
         <v>735</v>
       </c>
       <c r="C155" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>736</v>
       </c>
       <c r="H155" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6628,13 +6628,13 @@
         <v>737</v>
       </c>
       <c r="C156" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>738</v>
       </c>
       <c r="H156" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6645,13 +6645,13 @@
         <v>739</v>
       </c>
       <c r="C157" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>740</v>
       </c>
       <c r="H157" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6662,13 +6662,13 @@
         <v>741</v>
       </c>
       <c r="C158" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>742</v>
       </c>
       <c r="H158" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -6681,10 +6681,10 @@
       <c r="F159"/>
       <c r="G159"/>
       <c r="H159" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L159" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6695,13 +6695,13 @@
         <v>625</v>
       </c>
       <c r="C160" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>745</v>
       </c>
       <c r="F160" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G160" s="29"/>
     </row>
@@ -6723,7 +6723,7 @@
         <v>749</v>
       </c>
       <c r="C162" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>751</v>
@@ -6732,7 +6732,7 @@
         <v>750</v>
       </c>
       <c r="H162" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="288" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>755</v>
       </c>
       <c r="C163" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>757</v>
@@ -6752,7 +6752,7 @@
         <v>756</v>
       </c>
       <c r="H163" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6763,7 +6763,7 @@
         <v>752</v>
       </c>
       <c r="C164" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>754</v>
@@ -6772,7 +6772,7 @@
         <v>753</v>
       </c>
       <c r="H164" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>758</v>
       </c>
       <c r="C165" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>760</v>
@@ -6792,7 +6792,7 @@
         <v>759</v>
       </c>
       <c r="H165" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6803,7 +6803,7 @@
         <v>761</v>
       </c>
       <c r="C166" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>763</v>
@@ -6812,7 +6812,7 @@
         <v>762</v>
       </c>
       <c r="H166" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -6828,10 +6828,10 @@
       <c r="F167"/>
       <c r="G167"/>
       <c r="H167" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L167" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6842,13 +6842,13 @@
         <v>625</v>
       </c>
       <c r="C168" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>766</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G168" s="29"/>
     </row>
@@ -6870,7 +6870,7 @@
         <v>769</v>
       </c>
       <c r="C170" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>771</v>
@@ -6879,7 +6879,7 @@
         <v>770</v>
       </c>
       <c r="H170" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6890,7 +6890,7 @@
         <v>772</v>
       </c>
       <c r="C171" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>774</v>
@@ -6899,7 +6899,7 @@
         <v>773</v>
       </c>
       <c r="H171" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -6912,10 +6912,10 @@
       <c r="F172"/>
       <c r="G172"/>
       <c r="H172" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L172" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6926,13 +6926,13 @@
         <v>625</v>
       </c>
       <c r="C173" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>777</v>
       </c>
       <c r="F173" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G173" s="29"/>
     </row>
@@ -6959,13 +6959,13 @@
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J175" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L175" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
         <v>2</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7001,13 +7001,13 @@
       <c r="F177"/>
       <c r="G177"/>
       <c r="H177" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J177" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L177" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7036,13 +7036,13 @@
       <c r="F179"/>
       <c r="G179"/>
       <c r="H179" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J179" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L179" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
         <v>169</v>
       </c>
       <c r="C180" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>170</v>
@@ -7062,7 +7062,7 @@
         <v>2</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7078,13 +7078,13 @@
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J181" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L181" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7113,13 +7113,13 @@
       <c r="F183"/>
       <c r="G183"/>
       <c r="H183" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J183" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L183" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7139,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7179,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7195,13 +7195,13 @@
       <c r="F187"/>
       <c r="G187"/>
       <c r="H187" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J187" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L187" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7230,13 +7230,13 @@
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J189" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L189" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>201</v>
       </c>
       <c r="C190" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>202</v>
@@ -7256,7 +7256,7 @@
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7267,7 +7267,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>193</v>
@@ -7276,7 +7276,7 @@
         <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>198</v>
@@ -7296,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>196</v>
@@ -7316,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>190</v>
       </c>
       <c r="C194" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>191</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="H194" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7347,7 +7347,7 @@
         <v>82</v>
       </c>
       <c r="C195" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>194</v>
@@ -7356,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>200</v>
@@ -7376,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7392,13 +7392,13 @@
       <c r="F197"/>
       <c r="G197"/>
       <c r="H197" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J197" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L197" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7457,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7468,7 +7468,7 @@
         <v>239</v>
       </c>
       <c r="C202" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>240</v>
@@ -7477,7 +7477,7 @@
         <v>2</v>
       </c>
       <c r="H202" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
         <v>2</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7517,7 +7517,7 @@
         <v>2</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7537,7 +7537,7 @@
         <v>2</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7557,10 +7557,10 @@
         <v>2</v>
       </c>
       <c r="F206" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="L206" t="s">
         <v>878</v>
-      </c>
-      <c r="L206" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7580,10 +7580,10 @@
         <v>2</v>
       </c>
       <c r="F207" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="L207" t="s">
         <v>878</v>
-      </c>
-      <c r="L207" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7599,13 +7599,13 @@
       <c r="F208"/>
       <c r="G208"/>
       <c r="H208" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J208" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L208" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7635,13 +7635,13 @@
         <v>2</v>
       </c>
       <c r="H210" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J210" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L210" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7694,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7705,7 +7705,7 @@
         <v>222</v>
       </c>
       <c r="C214" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>223</v>
@@ -7714,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>221</v>
@@ -7734,7 +7734,7 @@
         <v>2</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7754,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7823,13 +7823,13 @@
         <v>2</v>
       </c>
       <c r="H221" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J221" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L221" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7862,13 +7862,13 @@
         <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J223" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L223" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -7905,7 +7905,7 @@
         <v>265</v>
       </c>
       <c r="C226" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>266</v>
@@ -7914,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
         <v>117</v>
       </c>
       <c r="C228" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>273</v>
@@ -7954,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -7965,7 +7965,7 @@
         <v>267</v>
       </c>
       <c r="C229" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>268</v>
@@ -7974,7 +7974,7 @@
         <v>2</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7994,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="H230" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8010,13 +8010,13 @@
       <c r="F231"/>
       <c r="G231"/>
       <c r="H231" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J231" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L231" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8046,13 +8046,13 @@
         <v>2</v>
       </c>
       <c r="H233" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J233" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L233" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8098,7 +8098,7 @@
         <v>2</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -8118,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -8138,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8158,7 +8158,7 @@
         <v>2</v>
       </c>
       <c r="H239" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8178,7 +8178,7 @@
         <v>2</v>
       </c>
       <c r="H240" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8198,7 +8198,7 @@
         <v>2</v>
       </c>
       <c r="H241" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8218,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="H242" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8234,13 +8234,13 @@
       <c r="F243"/>
       <c r="G243"/>
       <c r="H243" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J243" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L243" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8270,13 +8270,13 @@
         <v>2</v>
       </c>
       <c r="H245" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J245" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L245" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8305,13 +8305,13 @@
       <c r="F247"/>
       <c r="G247"/>
       <c r="H247" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J247" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L247" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8347,13 +8347,13 @@
       <c r="F249"/>
       <c r="G249"/>
       <c r="H249" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J249" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L249" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8399,7 +8399,7 @@
         <v>2</v>
       </c>
       <c r="H252" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8419,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="H253" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8439,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="H254" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8459,7 +8459,7 @@
         <v>2</v>
       </c>
       <c r="H255" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8479,7 +8479,7 @@
         <v>2</v>
       </c>
       <c r="H256" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8490,7 +8490,7 @@
         <v>319</v>
       </c>
       <c r="C257" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>320</v>
@@ -8499,7 +8499,7 @@
         <v>2</v>
       </c>
       <c r="H257" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8510,7 +8510,7 @@
         <v>321</v>
       </c>
       <c r="C258" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>322</v>
@@ -8519,7 +8519,7 @@
         <v>2</v>
       </c>
       <c r="H258" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8530,7 +8530,7 @@
         <v>323</v>
       </c>
       <c r="C259" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>324</v>
@@ -8539,7 +8539,7 @@
         <v>2</v>
       </c>
       <c r="H259" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8555,13 +8555,13 @@
       <c r="F260"/>
       <c r="G260"/>
       <c r="H260" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J260" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L260" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8591,13 +8591,13 @@
         <v>2</v>
       </c>
       <c r="H262" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J262" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L262" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8626,13 +8626,13 @@
       <c r="F264"/>
       <c r="G264"/>
       <c r="H264" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J264" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L264" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
         <v>2</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8672,10 +8672,10 @@
         <v>2</v>
       </c>
       <c r="H266" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L266" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8691,13 +8691,13 @@
       <c r="F267"/>
       <c r="G267"/>
       <c r="H267" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J267" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L267" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8743,7 +8743,7 @@
         <v>2</v>
       </c>
       <c r="H270" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8783,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="H272" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8794,7 +8794,7 @@
         <v>367</v>
       </c>
       <c r="C273" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>368</v>
@@ -8803,7 +8803,7 @@
         <v>2</v>
       </c>
       <c r="H273" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8823,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="H274" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8843,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="H275" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8863,7 +8863,7 @@
         <v>2</v>
       </c>
       <c r="H276" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="H277" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8903,7 +8903,7 @@
         <v>2</v>
       </c>
       <c r="H278" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8914,7 +8914,7 @@
         <v>369</v>
       </c>
       <c r="C279" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>370</v>
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="H279" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -8939,13 +8939,13 @@
       <c r="F280"/>
       <c r="G280"/>
       <c r="H280" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J280" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L280" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9001,13 +9001,13 @@
         <v>2</v>
       </c>
       <c r="H284" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J284" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L284" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9040,13 +9040,13 @@
         <v>2</v>
       </c>
       <c r="H286" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J286" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L286" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9075,13 +9075,13 @@
       <c r="F288"/>
       <c r="G288"/>
       <c r="H288" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J288" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L288" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9092,7 +9092,7 @@
         <v>397</v>
       </c>
       <c r="C289" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>398</v>
@@ -9101,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9121,7 +9121,7 @@
         <v>2</v>
       </c>
       <c r="F290" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9132,7 +9132,7 @@
         <v>117</v>
       </c>
       <c r="C291" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>400</v>
@@ -9141,7 +9141,7 @@
         <v>2</v>
       </c>
       <c r="H291" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9157,13 +9157,13 @@
       <c r="F292"/>
       <c r="G292"/>
       <c r="H292" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J292" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L292" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9192,13 +9192,13 @@
       <c r="F294"/>
       <c r="G294"/>
       <c r="H294" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J294" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L294" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="295" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9218,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="F295" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="296" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9234,13 +9234,13 @@
       <c r="F296"/>
       <c r="G296"/>
       <c r="H296" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J296" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L296" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="297" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9269,13 +9269,13 @@
       <c r="F298"/>
       <c r="G298"/>
       <c r="H298" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J298" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L298" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9295,7 +9295,7 @@
         <v>2</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="300" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9315,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="H300" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="301" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9335,7 +9335,7 @@
         <v>2</v>
       </c>
       <c r="H301" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="302" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9351,13 +9351,13 @@
       <c r="F302"/>
       <c r="G302"/>
       <c r="H302" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J302" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L302" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="303" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9386,13 +9386,13 @@
       <c r="F304"/>
       <c r="G304"/>
       <c r="H304" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J304" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L304" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="305" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9412,7 +9412,7 @@
         <v>2</v>
       </c>
       <c r="H305" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="306" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9432,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="307" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9448,13 +9448,13 @@
       <c r="F307"/>
       <c r="G307"/>
       <c r="H307" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J307" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L307" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="308" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9500,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="H310" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9516,13 +9516,13 @@
       <c r="F311"/>
       <c r="G311"/>
       <c r="H311" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J311" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L311" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9552,13 +9552,13 @@
         <v>2</v>
       </c>
       <c r="H313" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J313" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L313" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9587,13 +9587,13 @@
       <c r="F315"/>
       <c r="G315"/>
       <c r="H315" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J315" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L315" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9613,7 +9613,7 @@
         <v>2</v>
       </c>
       <c r="F316" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9633,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="H317" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9653,7 +9653,7 @@
         <v>2</v>
       </c>
       <c r="H318" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="319" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9669,13 +9669,13 @@
       <c r="F319"/>
       <c r="G319"/>
       <c r="H319" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J319" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L319" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="320" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9704,13 +9704,13 @@
       <c r="F321"/>
       <c r="G321"/>
       <c r="H321" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J321" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L321" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="322" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="323" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9750,7 +9750,7 @@
         <v>2</v>
       </c>
       <c r="H323" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="324" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9766,13 +9766,13 @@
       <c r="F324"/>
       <c r="G324"/>
       <c r="H324" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J324" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L324" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="325" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9818,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="328" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9838,7 +9838,7 @@
         <v>2</v>
       </c>
       <c r="H328" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="329" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9858,7 +9858,7 @@
         <v>2</v>
       </c>
       <c r="H329" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="330" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9874,13 +9874,13 @@
       <c r="F330"/>
       <c r="G330"/>
       <c r="H330" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J330" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L330" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="331" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9910,13 +9910,13 @@
         <v>2</v>
       </c>
       <c r="H332" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J332" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L332" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -9962,7 +9962,7 @@
         <v>2</v>
       </c>
       <c r="H335" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="336" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10002,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="H337" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10018,13 +10018,13 @@
       <c r="F338"/>
       <c r="G338"/>
       <c r="H338" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J338" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L338" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10080,13 +10080,13 @@
         <v>2</v>
       </c>
       <c r="H342" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J342" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L342" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10119,13 +10119,13 @@
         <v>2</v>
       </c>
       <c r="H344" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J344" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L344" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="345" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10171,7 +10171,7 @@
         <v>2</v>
       </c>
       <c r="F347" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="348" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10182,7 +10182,7 @@
         <v>507</v>
       </c>
       <c r="C348" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D348" s="7" t="s">
         <v>508</v>
@@ -10191,7 +10191,7 @@
         <v>2</v>
       </c>
       <c r="H348" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="349" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10207,13 +10207,13 @@
       <c r="F349"/>
       <c r="G349"/>
       <c r="H349" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J349" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L349" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="350" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10243,13 +10243,13 @@
         <v>2</v>
       </c>
       <c r="H351" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J351" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L351" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="352" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10295,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="H354" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10311,13 +10311,13 @@
       <c r="F355"/>
       <c r="G355"/>
       <c r="H355" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J355" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L355" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10372,13 +10372,13 @@
       <c r="F359"/>
       <c r="G359"/>
       <c r="H359" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J359" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L359" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10408,13 +10408,13 @@
         <v>2</v>
       </c>
       <c r="H361" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J361" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L361" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10460,7 +10460,7 @@
         <v>2</v>
       </c>
       <c r="F364" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="365" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -10471,7 +10471,7 @@
         <v>323</v>
       </c>
       <c r="C365" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>574</v>
@@ -10480,7 +10480,7 @@
         <v>2</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10500,7 +10500,7 @@
         <v>2</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="367" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10516,13 +10516,13 @@
       <c r="F367"/>
       <c r="G367"/>
       <c r="H367" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J367" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L367" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="368" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10552,13 +10552,13 @@
         <v>2</v>
       </c>
       <c r="H369" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J369" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L369" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="370" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10591,7 +10591,7 @@
         <v>2</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="372" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10611,7 +10611,7 @@
         <v>2</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="373" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10631,7 +10631,7 @@
         <v>2</v>
       </c>
       <c r="F373" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="374" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -10651,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="375" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10662,7 +10662,7 @@
         <v>540</v>
       </c>
       <c r="C375" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D375" s="7" t="s">
         <v>541</v>
@@ -10671,7 +10671,7 @@
         <v>2</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="376" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10682,7 +10682,7 @@
         <v>542</v>
       </c>
       <c r="C376" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>543</v>
@@ -10691,7 +10691,7 @@
         <v>2</v>
       </c>
       <c r="H376" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="377" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10707,13 +10707,13 @@
       <c r="F377"/>
       <c r="G377"/>
       <c r="H377" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J377" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L377" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="378" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10759,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="F380" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="381" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10779,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="382" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -10790,7 +10790,7 @@
         <v>599</v>
       </c>
       <c r="C382" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D382" s="7" t="s">
         <v>600</v>
@@ -10799,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="383" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10810,7 +10810,7 @@
         <v>601</v>
       </c>
       <c r="C383" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>602</v>
@@ -10819,7 +10819,7 @@
         <v>2</v>
       </c>
       <c r="F383" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="384" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10835,13 +10835,13 @@
       <c r="F384"/>
       <c r="G384"/>
       <c r="H384" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J384" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L384" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10897,13 +10897,13 @@
         <v>2</v>
       </c>
       <c r="H388" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J388" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L388" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="389" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10936,13 +10936,13 @@
         <v>2</v>
       </c>
       <c r="H390" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J390" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L390" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="391" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -10998,13 +10998,13 @@
         <v>2</v>
       </c>
       <c r="H394" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J394" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L394" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="395" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -11037,13 +11037,13 @@
         <v>2</v>
       </c>
       <c r="H396" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J396" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L396" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="397" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -11079,18 +11079,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11208,18 +11208,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71140C0-E837-4674-A6E9-38E9142EAFCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D03A26-E6F2-4FED-9422-1AF7B0870288}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96D03A26-E6F2-4FED-9422-1AF7B0870288}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71140C0-E837-4674-A6E9-38E9142EAFCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
